--- a/FSDAtestHPC/test-results/utilities_test.xlsx
+++ b/FSDAtestHPC/test-results/utilities_test.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2438" uniqueCount="353">
   <si>
     <t>FileName</t>
   </si>
@@ -1657,6 +1657,1184 @@
   <si>
     <t>TestActivity</t>
   </si>
+  <si>
+    <t>load('mussels.mat');
+Y=mussels.data;
+la=[0.5 0 0.5 0 0];
+% Transform all columns of matrix Y according to the values of la using
+% basic power transformation
+Y1=basicPower(Y,[],la);</t>
+  </si>
+  <si>
+    <t>% the normal probability density function
+npdf = @(x) (exp(-0.5*x.^2)/sqrt(2*pi));
+% normal kernel density
+nkde = @(x,unidata,h) mean(npdf((x-unidata)/h)/h); % kernel density
+% a univariate normal sample
+unidata = randn(200,1);
+% bandwidth estimation
+h = bwe(unidata);
+% plot of kernel density with estimated bandwidth
+warning('off');
+fplot(@(x) nkde(x,unidata,h),[-10,10],'r')
+% plot of the true density
+hold on
+fplot(@(x) (npdf(x)) ,[-10,10],'k')
+% plot of the data
+plot(unidata,npdf(unidata),'xb')
+warning('on');
+axis manual;
+title(['estimated bandwidth: ' num2str(h) ]);
+legend('estimated density','true density','data');</t>
+  </si>
+  <si>
+    <t>x = 0:pi/1000:2*pi;
+plot(x,sin(x));
+figure
+plot(x,cos(x));
+figure
+plot(x,atan(x))
+cascade
+% Now highlight a figure and then digit
+cabc
+% All the other figures but the one which has been selected will be
+% closed</t>
+  </si>
+  <si>
+    <t>close all;
+load('multiple_regression.txt');
+y=multiple_regression(:,4);
+X=multiple_regression(:,1:3);
+yXplot(y,X);
+[out]=LXS(y,X,'nsamp',10000);
+[out]=FSReda(y,X,out.bs);
+out1=out;
+out1.RES=out.RES.^2;
+resfwdplot(out1);
+levfwdplot(out1);
+resindexplot(out1.RES);
+plot(out.S2(:,1),out.S2(:,2)); title('Plot of R^2');
+cascade;</t>
+  </si>
+  <si>
+    <t>z = peaks(100);
+plot(z(:,26:5:50))
+grid on;
+clickableMultiLegend({'Line1','Line2','Line3','Line4','Line5'}, 'Location', 'NorthWest');
+axis manual;
+figure;
+z = peaks(100);
+plot(z(:,26:5:50))
+grid on;
+hlegend=clickableMultiLegend({'Line1','Line2','Line3','Line4','Line5'}, 'Location', 'NorthWest');
+axis manual;
+% legend(hlegend,'off');</t>
+  </si>
+  <si>
+    <t>Y=load('geyser2.txt');
+% A small number of subsamples just to show whow the procedure works.
+nsamp=10;
+out=tclustIC(Y,'cleanpool',false,'plots',1,'nsamp',10,'whichIC','CLACLA')
+% Make sure that units [23 54] are whenever possible respectively in
+% cluster 1 and 2
+UnitsSameGroup=[23 54];
+IDXCLAnew=ClusterRelabel(out.IDXCLA,UnitsSameGroup);</t>
+  </si>
+  <si>
+    <t>n=1000;
+x=sort(randn(n,1))+10;
+y=1+2*x+ randn(n,1);
+% y(50:70)=-5;
+z=randn(n,1);
+a=ctsub(x,y,z);
+subplot(2,1,1)
+plot(x,y)
+subplot(2,1,2)
+plot(x,a)</t>
+  </si>
+  <si>
+    <t>rho=-2;
+A=[4 rho; rho 3 ];
+mu=[1.5 1];
+ellipse(mu,A);</t>
+  </si>
+  <si>
+    <t>k=1000;
+x=randn(k,1);
+p=exactcdf(x);</t>
+  </si>
+  <si>
+    <t>out=existFS('DfM');
+if out == true
+disp('Mex file exists');
+else
+disp('Mex file does not exist');
+end</t>
+  </si>
+  <si>
+    <t>FullPath=which('findDir');
+root=FullPath(1:end-length('findDir.m')-1);
+list = findDir(root)</t>
+  </si>
+  <si>
+    <t>FullPath=which('findFile');
+%extract the directory containing findFile.m
+root=fileparts(FullPath);
+%list the content of the directory containing findFile.m
+list = findFile(root)</t>
+  </si>
+  <si>
+    <t>% FowlkesMallowsIndex (adjusted) with the two vectors as input.
+c=[1 1;
+1 2
+2 1;
+2 2 ;
+2 2;
+2 3;
+3 3;
+3 3;
+3 3;
+3 3];
+% c1= numeric vector containing the labels of the first partition
+c1=c(:,1);
+% c1= numeric vector containing the labels of the second partition
+c2=c(:,2);
+FM=FowlkesMallowsIndex(c1,c2);</t>
+  </si>
+  <si>
+    <t>n=1000;
+p=5;
+init=floor(0.5*(n+p+1))+1; 
+MMDenv = FSMenvmmd(n,p,'init',init);
+Bbound = FSMbonfbound(n,p,'init',init);
+figure;
+plot(MMDenv(:,1),MMDenv(:,2:end),'r',Bbound(:,1),Bbound(:,2:end),'b');</t>
+  </si>
+  <si>
+    <t>MDRenv = FSRenvmdr(1000,5,'init',10);
+Bbound = FSRbonfbound(1000,5,'init',10);
+plot(MDRenv(:,1),MDRenv(:,2:end),Bbound(:,1),Bbound(:,2:end));</t>
+  </si>
+  <si>
+    <t>c=HAbdp(0.5,1);
+disp(c);</t>
+  </si>
+  <si>
+    <t>cc=0.15:0.05:1.2;
+% BDPEFF = matrix which will contain
+% 1st column = value of c
+% 2nd column = breakdown point (bdp)
+% 3rd column = asympotic nominal efficiency (eff)
+BDPEFF=[cc' zeros(length(cc),2)];
+jk=1;
+for c=cc
+[bdp,eff]=HAc(c,1);
+BDPEFF(jk,2:end)=[bdp, eff];
+jk=jk+1;
+end
+nr=2;
+nc=1;
+subplot(nr,nc,1)
+plot(BDPEFF(:,1),BDPEFF(:,2))
+xlabel('c','Interpreter','Latex','FontSize',16)
+ylabel('Breakdown point','Interpreter','none')
+subplot(nr,nc,2)
+plot(BDPEFF(:,1),BDPEFF(:,3))
+xlabel('c','Interpreter','Latex','FontSize',16)
+ylabel('Asymptotic efficiency','Interpreter','none')</t>
+  </si>
+  <si>
+    <t>% Plot of psi function.
+% Obtain bottom panel of Figure 11.10 p. 375 of
+% Hoaglin et al. (1987).
+close all
+x=-9:0.1:9;
+psiHA=HApsi(x,1);
+plot(x,psiHA,'LineWidth',2)
+xlabel('$u$','Interpreter','Latex','FontSize',14)
+ylabel(' Hampel $\psi(u,[2,4,8]) $','Interpreter','Latex')
+a=2;
+b=4;
+c=8;
+hold('on')
+stem(a,a,'LineWidth',1,'LineStyle',':')
+stem(b,a,'LineWidth',1,'LineStyle',':')
+stem(-a,-a,'LineWidth',1,'LineStyle',':')
+stem(-b,-a,'LineWidth',1,'LineStyle',':')
+ax=axis;
+ylim([ax(3)-0.1 ax(4)+0.1])
+text([a;-a],[-0.1;0.1],{'$a$';'$-a$'},'Interpreter','latex','FontSize',14)
+text([b;-b],[-0.1;0.1],{'$b$';'$-b$'},'Interpreter','latex','FontSize',14)
+text([c;-c],[-0.1;0.1],{'$c$';'$-c$'},'Interpreter','latex','FontSize',14)</t>
+  </si>
+  <si>
+    <t>x=-9:0.1:9;
+psiHA=HApsider(x,1);
+plot(x,psiHA)
+xlabel('x','Interpreter','Latex')
+ylabel(' Hampel $\psi''(x) $','Interpreter','Latex')</t>
+  </si>
+  <si>
+    <t>x=-9:0.1:9;
+psiHAx=HApsix(x,1);
+plot(x,psiHAx)
+xlabel('x','Interpreter','Latex')
+ylabel(' Hampel $\psi(x) \times x $','Interpreter','Latex')</t>
+  </si>
+  <si>
+    <t>x=-9:0.1:9;
+rhoHA=HArho(x,1);
+plot(x,rhoHA,'LineWidth',2)
+xlabel('$u$','Interpreter','Latex')
+ylabel(' Hampel $\rho(u,[2, 4, 8]) $','Interpreter','Latex','FontSize',14)</t>
+  </si>
+  <si>
+    <t>x=-8:0.01:8;
+weiHA=HAwei(x,[1 2 4 8]);
+plot(x,weiHA)
+xlabel('x','Interpreter','Latex')
+ylabel('$W (x) =\psi(x)/x$','Interpreter','Latex')</t>
+  </si>
+  <si>
+    <t>NameFile='FSRmdr.m';
+IPS=mreadFS(NameFile);
+% Note that this function uses routine strjoin and can be used just if
+% MATLAB &amp;gt;=2013a
+if verLessThan('matlab','8.1.0')
+warning('version of MATLAB greater or equal than 2013a is needed')
+else
+[htmlstring, laste]=htmlwriteFS(IPS);
+end</t>
+  </si>
+  <si>
+    <t>close all
+x=-6:0.01:6;
+c=1.345;
+psiHU=HUpsi(x,c);
+plot(x,psiHU,'LineWidth',2)
+xlabel('$u$','Interpreter','Latex')
+ylabel('$\psi (u,1.345)$','Interpreter','Latex','FontSize',14)
+text(-c,-c,'-c=-1.345')
+text(c,c+0.1,'c=1.345')
+hold('on')
+stem(c,c,'LineStyle',':','LineWidth',2)
+stem(-c,-c,'LineStyle',':','LineWidth',2)</t>
+  </si>
+  <si>
+    <t>x=-6:0.01:6;
+psiHUder=HUpsider(x,2);
+plot(x,psiHUder)
+xlabel('x','Interpreter','Latex')
+ylabel('$\psi''(x)$','Interpreter','Latex')</t>
+  </si>
+  <si>
+    <t>% Plot of psi(x) function multiplied  by x.
+x=-6:0.01:6;
+psixHU=HUpsix(x,2);
+plot(x,psixHU)
+xlabel('x','Interpreter','Latex')
+ylabel('$\psi (x)$','Interpreter','Latex')</t>
+  </si>
+  <si>
+    <t>close all
+x=-3:0.001:3;
+c=1.345;
+rhoHU=HUrho(x,c);
+plot(x,rhoHU,'LineStyle','-','LineWidth',2)
+xlabel('$u$','Interpreter','Latex')
+ylabel('$\rho (u,1.345)$','Interpreter','Latex')
+text(-c,0,'-c=-1.345')
+text(c,0,'c=1.345')
+hold('on')
+plot(x,x.^2/2,'LineStyle',':','LineWidth',1.5)
+stem(c,c^2/2)
+stem(-c,c^2/2)</t>
+  </si>
+  <si>
+    <t>x=-6:0.01:6;
+weiHU=HUwei(x,2);
+plot(x,weiHU)
+xlabel('x','Interpreter','Latex')
+ylabel('$W (x) =\psi(x)/x$','Interpreter','Latex')</t>
+  </si>
+  <si>
+    <t>ktuning=4.5;
+[c,A,B,d]=HYPbdp(0.5,1,ktuning);
+% In this case
+% c = 2.010311082005501
+% A = 0.008931591866092
+% B = 0.051928487236632
+% d=  0.132017481327058</t>
+  </si>
+  <si>
+    <t>cc=2:0.1:6;
+% BDPEFF = matrix which will contain
+% 1st column = value of c
+% 2nd column = breakdown point (bdp)
+% 3rd column = asympotic nominal efficiency (eff)
+% 4th column = value of parameter A
+% 5th column = value of parameter B
+% 6th column = value of parameter d
+BDPEFF=[cc' zeros(length(cc),5)];
+% Fixed value of k (sup CVC) which must be used
+kdef=4.5;
+jk=1;
+for c=cc
+[bdp,eff,A,B,d]=HYPc(c,1,'k',kdef);
+BDPEFF(jk,2:end)=[bdp, eff, A, B, d];
+jk=jk+1;
+end
+nr=2;
+nc=2;
+subplot(nr,nc,1)
+plot(BDPEFF(:,1),BDPEFF(:,2))
+xlabel('c','Interpreter','Latex','FontSize',16)
+ylabel('Breakdown point','Interpreter','none')
+subplot(nr,nc,2)
+plot(BDPEFF(:,1),BDPEFF(:,3))
+xlabel('c','Interpreter','Latex','FontSize',16)
+ylabel('Asymptotic efficiency','Interpreter','none')
+subplot(nr,nc,3)
+plot(BDPEFF(:,1),BDPEFF(:,4:5))
+xlabel('c','Interpreter','Latex','FontSize',16)
+ylabel('A and B','Interpreter','none')
+subplot(nr,nc,4)
+plot(BDPEFF(:,1),BDPEFF(:,6))
+xlabel('c','Interpreter','Latex','FontSize',16)
+ylabel('d','Interpreter','none')
+suplabel(['Constant k=' num2str(kdef)],'t');</t>
+  </si>
+  <si>
+    <t>cc=3:6;
+kk=4:0.5:5;
+ABD=zeros(length(cc)*length(kk),4);
+ij=1;
+for c=cc
+for k=kk
+[A,B,d]=HYPck(c,k);
+eff=B^2/A;
+ABD(ij,:)=[A,B,d,eff];
+ij=ij+1;
+end
+end</t>
+  </si>
+  <si>
+    <t>ktuning=4.5;
+[c,A,B,d]=HYPeff(0.8427,1,ktuning);
+% In this case
+% c = 3.000130564905703
+% A = 0.604298601602487
+% B = 0.713612241773758
+% d= 1.304379168746527
+% See also Table 2 of HRR p. 645</t>
+  </si>
+  <si>
+    <t>[bdp]=HYPk(4.5,1);
+disp('Break down point')
+disp(bdp)</t>
+  </si>
+  <si>
+    <t>% Plot of hyperbolic psi function.
+% Obtain Figure 2 of  p. 645 of HRR.
+x=-9:0.1:9;
+ctuning=6;
+ktuning=4.5;
+psiHYP=HYPpsi(x,[ctuning,ktuning]);
+plot(x,psiHYP)
+xlabel('$u$','Interpreter','Latex')
+ylabel(' Hyperbolic $\psi(u,c=6,k=4.5) $','Interpreter','Latex')
+text(ctuning,-0.1,'c','FontSize',14)
+text(-ctuning,0.1,'-c','FontSize',14)</t>
+  </si>
+  <si>
+    <t>% Plot of derivative of hyperbolic psi function.
+x=-9:0.1:9;
+ctuning=6;
+ktuning=4.5;
+psiHYPder=HYPpsider(x,[ctuning,ktuning]);
+plot(x,psiHYPder)
+xlabel('x','Interpreter','Latex')
+ylabel(' Hyperbolic $\psi''(x) $','Interpreter','Latex')</t>
+  </si>
+  <si>
+    <t>% plot of psi(x)*x for Hyperbolic estimator.
+x=-9:0.1:9;
+ctuning=6;
+ktuning=4.5;
+psiHYPx=HYPpsix(x,[ctuning,ktuning]);
+plot(x,psiHYPx)
+xlabel('x','Interpreter','Latex')
+ylabel('$\psi (x) \times x$','Interpreter','Latex')</t>
+  </si>
+  <si>
+    <t>% Plot of rho function for hyperbolic tangent estimator.
+x=-8:0.001:8;
+ctuning=6;
+ktuning=4.5;
+rhoHYP=HYPrho(x,[ctuning,ktuning]);
+plot(x,rhoHYP)
+xlabel('x','Interpreter','Latex')
+ylabel(' Hyperbolic $\rho(x) $','Interpreter','Latex')</t>
+  </si>
+  <si>
+    <t>x=-6:0.01:6;
+ctuning=4;
+ktuning=4.5;
+weiHYP=HYPwei(x,[ctuning,ktuning]);
+plot(x,weiHYP)
+xlabel('x','Interpreter','Latex')
+ylabel('$W (x) =\psi(x)/x$','Interpreter','Latex')</t>
+  </si>
+  <si>
+    <t>x=(0:0.001:3)';
+a=[1,2,3,3];
+b=[1,1,1,0.5];
+Y=zeros(length(x),length(a));
+for i=1:length(x)
+Y(i,:)=inversegamcdf(x(i),a,b);
+end
+for j=1:4
+subplot(2,2,j)
+plot(x,Y(:,j))
+title(['CDF with a=' num2str(a(j)) ' b=' num2str(b(j))])
+xlabel('x')
+end</t>
+  </si>
+  <si>
+    <t>x=(0:0.0001:0.9999)';
+a=[1,2,3,50,100,10000];
+b=[1,10,100,0.05,10,800];
+Y=zeros(length(x),length(a));
+Ychk=Y;
+for i=1:length(x)
+Y(i,:)=inversegaminv(x(i),a,b);
+Ychk(i,:)=inversegaminv(x(i),a,b,1);
+end
+disp('Maximum absolute difference is:');
+disp(max(max(abs(Y-Ychk))));</t>
+  </si>
+  <si>
+    <t>x=(0:0.001:3)';
+a=[1,2,3,3];
+b=[1,1,1,0.5];
+for j=1:4
+subplot(2,2,j);
+plot(x,inversegampdf(x,a(j),b(j)));
+xlabel('x');
+title(['PDF with a=' num2str(a(j)) ' b=' num2str(b(j))]);
+end</t>
+  </si>
+  <si>
+    <t>X1 = [0+.5*randn(150,1)   5+2.5*randn(150,1)];
+X2 = [1.75+.25*randn(60,1) 8.75+1.25*randn(60,1)];
+X = [X1 ; X2];
+% A filled contour plot obtained using colormap 'cmap' = 'summer'.
+[F1,Xi,bw] = kdebiv(X,'contourtype','contourf','cmap','summer');
+title('A filled contour plot obtained using colormap ''summer''');
+hold on
+plot(X(:,1),X(:,2),'rx')</t>
+  </si>
+  <si>
+    <t>n = 5; 
+k = 2; 
+N = 7;
+kcomb=lexunrank(n,k,N)</t>
+  </si>
+  <si>
+    <t>n=20000;
+v=2;
+X=randn(n,v);
+mu = [1 -1]; Sigma = [.9 .4; .4 .3];
+y = logmvnpdfFS(X, mu, Sigma);
+y1=log(mvnpdf(X,mu,Sigma));
+max(abs(y-y1))
+% 2.842e-14</t>
+  </si>
+  <si>
+    <t>Y=randn(10,2);
+MU=median(Y); 
+SIGMA=[0.3 0.4; 0.4 1];
+% Compute MD using as centroid the medians and shape matrix SIGMA
+d=mahalFS(Y,MU,SIGMA);</t>
+  </si>
+  <si>
+    <t>rng('default')
+y =randn(10,1);
+out=mpdp(y,0.2);</t>
+  </si>
+  <si>
+    <t>psifunc=struct;
+psifunc.class='TB';
+bdp=0.5;
+c=TBbdp(bdp,1);
+% kc = E(rho) = sup(rho)*bdp
+kc=c^2/6*bdp;
+psifunc.c1=c;
+psifunc.kc1=kc;
+n=10000;
+shift=5;
+u=2*randn(n,1);
+u(1:10)=u(1:10)+shift;
+s=Mscale(u,psifunc)</t>
+  </si>
+  <si>
+    <t>% R SIDE: display in the MATLAB command window
+%         the strings to execute in R
+Rstring = ['EXECUTE THE FOLLOWING IN R AND COMPARE RESULTS' char(10) char(10) ...
+'RNGkind("Mersenne-Twister") # set "Mersenne-Twister" "Inversion"' char(10)...
+'set.seed(0)' char(10)...
+'state = .Random.seed' char(10) ...
+char(10)...
+'runif(5)' char(10)...
+'# [1] 0.8966972 0.2655087 0.3721239 0.5728534 0.9082078' char(10)'];
+disp(Rstring);
+% MATLAB SIDE:
+clear all; close all;
+m = 'MATLAB: ';
+r = 'R:      ';
+expectedRes = [0.8966972 0.2655087 0.3721239 0.5728534 0.9082078]';
+% 5 random numbers from a uniform distribution in [0 1].
+rn = mtR(5);
+sprintf('%s %0.7f  ',m,rn)
+sprintf('%s %0.7f  ',r,[0.8966972 0.2655087 0.3721239 0.5728534 0.9082078])
+assert(isequal(round(rn,7), round(expectedRes,7)), 'Error: MATLAB did not output the same random values as R!')</t>
+  </si>
+  <si>
+    <t>v = 1:50; k = 4; 
+tic
+for i=1:10, nchoosekFS(v,k); end
+t_nchoosekFS = toc
+tic
+for i=1:10, nchoosek(v,k); end
+t_nchoosek = toc
+fprintf('nchoosekFS has been %5.2f times faster than nchoosek\n\n\n', t_nchoosek/t_nchoosekFS); 
+fprintf('Try now again using k=5: in a 32 bit computer\n');
+fprintf('nchoosekFS will require about the same time (in order of magnitude)\n');
+fprintf('while nchoosek will start swaping into virtual memory.\n');</t>
+  </si>
+  <si>
+    <t>ci=ncpci(52,'X2',8);
+disp('Confidence interval for the non centrality parameter')
+disp(ci)</t>
+  </si>
+  <si>
+    <t>x=35;
+df=[5;4];
+lb=[2;3];
+nc=[1;6];
+[out]=ncx2mixtcdf(x,df,lb,nc);</t>
+  </si>
+  <si>
+    <t>close all
+y=(-2:0.1:2)';
+n=length(y);
+la=-1:1:3;
+nla=length(la);
+YtraYJ=zeros(n,nla);
+YtraBC=nan(n,nla);
+posy=y&amp;gt;0;
+for j=1:nla
+YtraYJ(:,j)=normYJ(y,1,la(j),'Jacobian',false);
+YtraBC(posy,j)=normBoxCox(y(posy),1,la(j),'Jacobian',false);
+end
+subplot(1,2,1)
+plot(y,YtraYJ)
+for j=1:nla
+text(y(1), YtraYJ(1,j),['\lambda=' num2str(la(j))])
+end
+xlabel('Original values')
+ylabel('Transformed values')
+title('Yeo-Johnson transformation')
+subplot(1,2,2)
+plot(y,YtraBC)
+xlim([y(1) y(end)])
+for j=1:nla
+text(y(16), YtraBC(22,j),['\lambda=' num2str(la(j))])
+end
+xlabel('Original values')
+ylabel('Transformed values')
+title('Box-Cox transformation')</t>
+  </si>
+  <si>
+    <t>y=(-3:3)';
+lambda=0
+y1=normYJ(y,1,lambda)
+plot(y,y1)
+xlabel('Original values')
+ylabel('Transformed values')</t>
+  </si>
+  <si>
+    <t>% openMatlabFileFromHTML with all default options.
+% In this case file examples_regression.m is opened.
+openMatlabFileFromHTML('examples_regression.m')</t>
+  </si>
+  <si>
+    <t>%% Breakdown vs efficiency.
+%Analysis of breakdown point and asymptotic efficiency
+%at the normal distribution as a function of c in regression.
+c=1:0.01:4;
+CC=[c' zeros(length(c),1)];
+jk=0;
+for j=c
+jk=jk+1;
+[bdp,eff]=OPTc(j,1);
+CC(jk,2:3)=[bdp,eff];
+end
+subplot(2,1,1)
+plot(c',CC(:,2))
+xlabel('c','Interpreter','Latex','FontSize',16)
+ylabel('Breakdown point','Interpreter','none')
+subplot(2,1,2)
+plot(c',CC(:,3))
+xlabel('c','Interpreter','Latex','FontSize',16)
+ylabel('Asymptotic efficiency','Interpreter','none')</t>
+  </si>
+  <si>
+    <t>x=-6:0.01:6;
+psiOPT=OPTpsi(x,1.2);
+plot(x,psiOPT)
+xlabel('x','Interpreter','Latex')
+ylabel('$\psi (x)$','Interpreter','Latex')</t>
+  </si>
+  <si>
+    <t>x=-6:0.01:6;
+psiOPTder=OPTpsider(x,1.2);
+plot(x,psiOPTder)
+xlabel('x','Interpreter','Latex')
+ylabel('$\psi''(x)$','Interpreter','Latex')
+title('Optimal')</t>
+  </si>
+  <si>
+    <t>x=-6:0.01:6;
+psixOPT=OPTpsix(x,1.2);
+plot(x,psixOPT)
+xlabel('x','Interpreter','Latex')
+ylabel('$\psi (x) \times x$','Interpreter','Latex')</t>
+  </si>
+  <si>
+    <t>x=-6:0.01:6;
+rhoOPT=OPTrho(x,2);
+plot(x,rhoOPT)
+xlabel('x','Interpreter','Latex')
+ylabel('$\rho (x)$','Interpreter','Latex')</t>
+  </si>
+  <si>
+    <t>x=-6:0.1:6;
+weiOPT=OPTwei(x,2);
+plot(x,weiOPT)
+xlabel('x','Interpreter','Latex')
+ylabel('$W (x) =\psi(x)/x$','Interpreter','Latex')</t>
+  </si>
+  <si>
+    <t>n = 50000;
+x = randn(1,n) ;
+y = zeros(1,n);
+% sequential run
+tic
+for i = 1 : n
+y(i) = std(x(1:i));
+end
+fprintf('\n\n\n  Normal for: %f secs \n \n ',toc);
+% parallel run
+numpool = 4;
+pariter = n;
+UserOptions = {};
+[numpool, tstart, progbar, usePCT, usematlabpool] = ...
+PoolPrepare(numpool,pariter,UserOptions);
+parfor i = 1 : n
+y(i) = std(x(1:i));
+end
+cleanpool = 1; % this closes the pool of MATLAB sessions
+tend = PoolClose(cleanpool, tstart, progbar, usePCT,  usematlabpool);
+fprintf('\n\n\n      parFor: %f secs\n\n',tend);</t>
+  </si>
+  <si>
+    <t>Y1=load('geyser2.txt');
+Y2=load('fishery.txt');
+Y3=load('M5data.txt');
+figure('Tag','pl_spm'); spmplot(Y1); hmain=gcf;
+figure('Tag','pl_spm'); spmplot(Y2);
+figure('Tag','pl_spm'); spmplot(Y3);
+position(hmain);</t>
+  </si>
+  <si>
+    <t>y=(1:5)';
+y1=Powertra(y,0.2);
+plot(y,y1)
+xlabel('Original values')
+ylabel('Transformed values using BoxCox')</t>
+  </si>
+  <si>
+    <t>% Create the requested input arguments.
+FileName='addFSDA2path';
+FullPath=which(FileName);
+%Navigate to the main folder of FSDA
+FSDAroot=fileparts(FullPath);
+cd(FSDAroot)
+% Specify subfolders of main folders for which contents file has to be
+% created
+InclDir={'graphics' 'regression' 'multivariate' 'clustering' 'combinatorial' ...
+'examples' 'utilities' 'utilities_stat' 'utilities_help'};
+ExclDir={'privateFS'  'datasets'};
+% Create list of folders which must have the personalized contents file
+list = findDir(FSDAroot,'InclDir',InclDir,'ExclDir',ExclDir);
+% Crete personalized contents file for main folder of FSDA
+% and required subfolders.
+force=false;
+[FilesIncluded,FilesExcluded]=makecontentsfileFS('dirpath',list,'FilterFileContent','%FScategory:','force',force,'printOutputCell','Contents.m');
+[~,OUT]=publishFSallFiles(FilesIncluded, 'evalCode','false','write2file',false);
+% Create HTML file containing all the items which make up the bibliography
+fileBiblio=publishBibliography(FilesIncluded,OUT,'write2file',false);</t>
+  </si>
+  <si>
+    <t>FileName='addFSDA2path';
+FullPath=which(FileName);
+FSDAroot=FullPath(1:end-length(FileName)-3);
+InclDir={'graphics' 'regression' 'multivariate' 'clustering' 'combinatorial' ...
+'examples' 'utilities' 'utilities_stat'};
+ExclDir={'privateFS'  'datasets'};
+list = findDir(FSDAroot,'InclDir',InclDir,'ExclDir',ExclDir)
+out=makecontentsfileFS('dirpath',list,'FilterFileContent','%FScategory','force',false);
+cd(fileparts(which('docsearchFS.m')))
+% Create HTML file containing alphabetical list of functions
+fstring=publishFunctionAlpha(out);
+% open outfile file in web browser
+FileWithFullPath=which('docsearchFS.m');
+[pathFSDAstr]=fileparts(FileWithFullPath);
+fsep=filesep;
+outputOFHtmlHelpFile=[FSDAroot fsep 'helpfiles' fsep 'FSDA\function-alpha.html'];
+web(outputOFHtmlHelpFile,'-browser');</t>
+  </si>
+  <si>
+    <t>X = [1 2 4 4  7;
+3 4 6 6  8;
+5 6 8 8  10;
+5 7 10 12 1500];
+y1=Qn(X)
+y2=Qn(X,2)</t>
+  </si>
+  <si>
+    <t>n=200;
+Y=randn(n,1);
+k=10;
+[out]=quickselectFS(Y,k);
+% Check the result
+sorY=sort(Y);
+disp([out,sorY(k)])</t>
+  </si>
+  <si>
+    <t>T=[1 1 0;
+1 2 1;
+0 0 4];
+ARI=RandIndexFS(T);</t>
+  </si>
+  <si>
+    <t>% The input string is extracted from the head of the FSDA function tclust.m.
+FileWithFullPath=which('tclust');
+filename=FileWithFullPath;
+fileID = fopen(char(filename), 'r');
+fstring=fscanf(fileID,'%c');
+% Starting and ending lines
+aa=regexp(fstring,'tclust partitions the points') ;
+bb=regexp(fstring,'constrained, Mahalanobis distances\.');
+% String
+str=fstring(aa:bb+35);
+% Remove from string all percentage signs
+posPercentageSigns=regexp(str,'%');
+str(posPercentageSigns)=[];
+str=[str 'x0ANow some wanted line feeds: x0A first item;   x0A   second item.'];
+str=regexprep(str,'x0A','\x0A');
+% Remove unnecessary spaces and extra line feeds from str but just keep
+% line break if before there was ':' or ';' or '.'
+a=removeExtraSpacesLF(str)</t>
+  </si>
+  <si>
+    <t>x=[ones(5,1); 6; 7; 8.2; 8.2; 10];
+% y is a vector containing any real number.
+y=(1:10)';
+ysmo=repDupValWithMean(x,y);
+disp(['      x   '   '      y   ' '      ysmo  '])
+disp([x y ysmo])
+% The first 5 elements of ysmo are equal to mean(y(1:5)) because the
+% corresponding elements of x share the same value.
+% The elements in position 8 and 9 of ysmo are equal to mean(y([8:9]))
+% because the corresponding elements of x share the same value.
+% All the other elements of vector ysmo are equal to y.</t>
+  </si>
+  <si>
+    <t>bdp=0.5;
+% Suppose the dimension is 3
+v=3;
+% The constants c and M associated to a breakdown point of 50 per cent
+% and an ARP of 0.05 when there are three variables are
+% c=1.133183024897769 and M= 1.662300458017338
+[c,M]=RKbdp(bdp,v)</t>
+  </si>
+  <si>
+    <t>close all
+% Find the values of c and M given bdp=0.4 and v=5 for ARP=0.01
+x=0:0.01:5;
+bdp=0.4;
+v=5;
+ARP=0.01;
+[c,M]=RKbdp(bdp,v,ARP);
+psiRK=RKpsi(x,c,M);
+% psiRK=psiRK/max(psiRK);
+plot(x,psiRK,'LineWidth',2)
+xlabel('$u$','Interpreter','Latex')
+ylabel('$\psi (u,c,M)$','Interpreter','Latex')
+title('$\psi (u,c,M)$','Interpreter','Latex')
+hold('on')
+stem(M,M,'LineStyle',':','LineWidth',1)
+text(M,0,'M')
+stem(M+c,0,'LineStyle',':','LineWidth',1)
+text(M+c,0,'M+c')</t>
+  </si>
+  <si>
+    <t>close all
+% Find the values of c and M given bdp=0.4 and v=5 for ARP=0.01
+x=0:0.01:5;
+bdp=0.4;
+v=5;
+ARP=0.01;
+[c,M]=RKbdp(bdp,v,ARP);
+psiderRK=RKpsider(x,c,M);
+% psiderRK=psiderRK/max(psiderRK);
+plot(x,psiderRK,'LineWidth',2)
+xlabel('$u$','Interpreter','Latex')
+ylabel('$\psi'' (u,c,M)$','Interpreter','Latex')
+title('$\psi'' (u,c,M)$','Interpreter','Latex')
+hold('on')
+stem(M,1,'LineStyle',':','LineWidth',1)
+text(M,0,'M')
+stem(M+c,0,'LineStyle',':','LineWidth',1)
+text(M+c,0,'M+c')</t>
+  </si>
+  <si>
+    <t>close all
+% Find the values of c and M given bdp=0.4 and v=5 for ARP=0.01
+x=0:0.01:5;
+bdp=0.4;
+v=5;
+ARP=0.01;
+[c,M]=RKbdp(bdp,v,ARP);
+psixRK=RKpsix(x,c,M);
+% psixRK=psixRK/max(psiRK);
+plot(x,psixRK,'LineWidth',2)
+xlabel('$u$','Interpreter','Latex')
+ylabel('$u\psi (u,c,M)$','Interpreter','Latex')
+title('$u \psi (u,c,M)$','Interpreter','Latex')
+hold('on')
+stem(M,M^2,'LineStyle',':','LineWidth',1)
+text(M,0,'M')
+stem(M+c,0,'LineStyle',':','LineWidth',1)
+text(M+c,0,'M+c')</t>
+  </si>
+  <si>
+    <t>close all
+% Find the values of c and M given bdp=0.4 and v=5 for ARP=0.01
+x=0:0.01:5;
+bdp=0.4;
+v=5;
+ARP=0.01;
+[c,M]=RKbdp(bdp,v,ARP);
+rhoRK=RKrho(x,c,M);
+% rhoRK=rhoRK/max(rhoRK);
+plot(x,rhoRK,'LineWidth',2)
+xlabel('$u$','Interpreter','Latex')
+ylabel('$\rho (u,c,M)$','Interpreter','Latex')
+title('$\rho (u,c,M)$','Interpreter','Latex')
+hold('on')
+stem(M,M^2/2,'LineStyle',':','LineWidth',1)
+text(M,0,'M')
+stem(M+c,M^2/2+c*(5*c+16*M)/30,'LineStyle',':','LineWidth',1)
+text(M+c,0,'M+c')</t>
+  </si>
+  <si>
+    <t>close all
+% Find the values of c and M given bdp=0.4 and v=5 for ARP=0.01
+x=0:0.01:5;
+bdp=0.4;
+v=5;
+ARP=0.01;
+[c,M]=RKbdp(bdp,v,ARP);
+weiRK=RKwei(x,c,M);
+% weiRK=weiRK/max(weiRK);
+plot(x,weiRK,'LineWidth',2)
+xlabel('$u$','Interpreter','Latex')
+ylabel('$w (u,c,M)$','Interpreter','Latex')
+title('$w (u,c,M)$','Interpreter','Latex')
+hold('on')
+stem(M,1,'LineStyle',':','LineWidth',1)
+text(M,0,'M')
+stem(M+c,0,'LineStyle',':','LineWidth',1)
+text(M+c,0,'M+c')</t>
+  </si>
+  <si>
+    <t>clear all; close all;
+data=[randn(500,2);randn(500,1)+3.5, randn(500,1);];
+x = data(:,1);
+y = data(:,2);
+% Data density
+[density,xout,bandwidth]   = kdebiv(data,'pdfmethod','fsda');
+xx = xout(:,1);
+yy = xout(:,2);
+zz = density;
+% plot of data and density
+figure;
+[xq,yq] = meshgrid(xx,yy);
+density = griddata(xx,yy,density,xq,yq);
+contour3(xq,yq,density,50), hold on
+plot(x,y,'r.','MarkerSize',5)
+title(['Original data (' num2str(numel(y)) ' units) with density contour'],'FontSize',16);
+%Interpolate the density and apply thinning using retention probabilities (1 - pdfe/max(pdfe))
+F = TriScatteredInterp(xx(:),yy(:),zz(:));
+pdfe = F(x,y);
+pretain = 1 - pdfe/max(pdfe);
+[Xt , Xti]= rthin([x y],pretain);
+% rthin retention probabilities
+[psorted ii] = sort(pretain);
+figure;
+plot(x,y,'r.','MarkerSize',5);
+hold on;
+plot(x(ii(1:100)),y(ii(1:100)),'bx','MarkerSize',5);
+title('The 100 units with smaller retention probabilities','FontSize',16);
+% now estimate the density on the retained units
+%[tdensity,txout,tbandwidth] = ksdensity(Xt);
+[tdensity,txout,tbandwidth]  = kdebiv(Xt,'pdfmethod','fsda');
+txx = txout(:,1);
+tyy = txout(:,2);
+tzz = tdensity;
+% and plot the retained units with their density superimposed
+figure;
+[txq,tyq] = meshgrid(txx,tyy);
+tdensity = griddata(txx,tyy,tdensity,txq,tyq);
+contour3(txq,tyq,tdensity,50), hold on
+plot(x(Xti),y(Xti),'b.','MarkerSize',5);
+title(['Retained data (' num2str(numel(y(Xti))) ' units) with new density contour'],'FontSize',16);
+cascade;</t>
+  </si>
+  <si>
+    <t>X = [1 2 4 4  7;
+3 4 6 6  8;
+5 6 8 8  10;
+5 7 10 12 1500];
+y1=Sn(X)
+y2=Sn(X,2)</t>
+  </si>
+  <si>
+    <t>n=200;
+p=3;
+state1=123498;
+randn('state', state1);
+X=randn(n,p);
+gplotmatrix(X);
+% Add a common label on the x axis
+[ax1,h1]=suplabel('super X label');
+% Add a common label on the y axis
+[ax2,h2]=suplabel('super Y label','y');
+% Add a common label on the y axis
+[ax3,h2]=suplabel('super Y label (right)','yy');
+% Add a common label on top of the plot
+[ax4,h3]=suplabel('super Title'  ,'t');
+% set the fontsize of the string on top of the plot
+set(h3,'FontSize',30);</t>
+  </si>
+  <si>
+    <t>load fisheriris;
+tbl=tabulateFS(species);
+disp(tbl)</t>
+  </si>
+  <si>
+    <t>[bdp]=TBc(2,1)
+disp('Break down point')
+disp(bdp)</t>
+  </si>
+  <si>
+    <t>c=TBeff(0.95,1)
+% for a fixed shape efficiency we have
+% c= 5.490249208447494
+c=TBeff(0.95,1,1)</t>
+  </si>
+  <si>
+    <t>close all
+x=-6:0.01:6;
+c=2;
+psiTB=TBpsi(x,c);
+plot(x,psiTB,'LineWidth',2)
+xlabel('$u$','Interpreter','Latex')
+ylabel('$\psi(u,2)$','Interpreter','Latex','FontSize',14)
+hold('on')
+ax=axis;
+line([-c;-c],[ax(3);0],'LineStyle',':','LineWidth',1)
+line([c;c],[ax(3);0],'LineStyle',':','LineWidth',1)</t>
+  </si>
+  <si>
+    <t>x=-6:0.01:6;
+c=1.5476;
+psiTBder=TBpsider(x,c);
+plot(x,psiTBder)
+xlabel('x','Interpreter','Latex')
+ylabel('$\psi''(x)$','Interpreter','Latex')</t>
+  </si>
+  <si>
+    <t>x=-6:0.01:6;
+psixTB=TBpsix(x,2);
+plot(x,psixTB)
+xlabel('x','Interpreter','Latex')
+ylabel('$\psi (x)$','Interpreter','Latex')</t>
+  </si>
+  <si>
+    <t>close all
+x=-6:0.01:6;
+rhoTB=TBrho(x,2);
+plot(x,rhoTB,'LineWidth',2)
+xlabel('$u$','Interpreter','Latex')
+ylabel('$\rho (u,2)$','Interpreter','Latex')
+text(x(1)-0.8,rhoTB(1),'c^2/6')
+text(x(end)+0.2,rhoTB(end),'c^2/6')
+title('$\rho (u,c)$','Interpreter','Latex')
+hold('on')
+c=2;
+stem(c,c^2/6,'LineStyle',':','LineWidth',1)
+stem(-c,c^2/6,'LineStyle',':','LineWidth',1)</t>
+  </si>
+  <si>
+    <t>x=-6:0.01:6;
+weiTB=TBwei(x,2);
+plot(x,weiTB)
+xlabel('x','Interpreter','Latex')
+ylabel('$W (x) =\psi(x)/x$','Interpreter','Latex')</t>
+  </si>
+  <si>
+    <t>A=magic(5);
+disp('Input matrix A')
+disp(A)
+disp('Extract the elements above the main diagonal of matrix A in a vector')
+k = 1;
+y=triu2vec(A,k);
+disp(y)</t>
+  </si>
+  <si>
+    <t>close all;
+% create two figures, rescale and position them
+hfigl = figure; plot(sin(rand(10,1)),'r'); title('goes on left');
+hfigr = figure; plot(cos(rand(10,1)),'b'); title('goes on right');
+upperfracpos(hfigl , hfigr , 0.5);
+% now rescale the figures to a smaller proportion
+upperfracpos(hfigl , hfigr , 0.2);
+% this is just to bring the rescaled figures in the screen foreground
+figure(hfigl); figure(hfigr);</t>
+  </si>
+  <si>
+    <t>numbertotest = 8.4;
+out=verLessThanFS(numbertotest);
+if out == true 
+disp(['current version is older than ' num2str(numbertotest)]);
+else
+disp(['current version is not older than ' num2str(numbertotest)]);
+end</t>
+  </si>
+  <si>
+    <t>clear all;
+close all;
+y=vervaatrnd</t>
+  </si>
+  <si>
+    <t>clear all;
+close all;
+betav = 1;
+y=vervaatsim(betav)</t>
+  </si>
+  <si>
+    <t>clear all; close all;
+[f F x] = vervaatxdf(1);</t>
+  </si>
+  <si>
+    <t>rng(100)
+X = randn(100,5);
+% Contaminate 5th and 10th row of matrix X
+X(5,:)=5;
+X(10,:)=-6;
+p=[1 99];
+Y = winsor(X,p);
+subplot(2,1,1)
+boxplot(X)
+title('Original data')
+subplot(2,1,2)
+boxplot(Y)
+title('Winsorized data')</t>
+  </si>
+  <si>
+    <t>%we have 500 balls in the urn
+M  = 500;   
+%we extract 3 balls, one at a time, without replacement
+N  = 3;     
+%initially, in the urn we have 250 red and 250 white balls
+K  = M/2;   
+%red balls are ten times the white balls
+W  = 10;    
+% We compute the probability of getting 0, 1, 2 or 3 red balls in drawing
+% 3 balls without replacement.
+for x = 0:N
+wpdf(x+1) = WNChygepdf(x,N,K,M,W);
+end
+disp('We have an urn with 2 groups of balls;');
+disp('There are 250 balls in each group;');
+disp('But the probability of getting a ball of one type is 10 times that of the other type;');
+disp('Then:');
+disp('    the probability of getting 0, or 1, or 2, or 3 balls');
+disp('    of the first type in 3 (weighted) drawns is respectively:');
+disp(wpdf);</t>
+  </si>
+  <si>
+    <t>str='Paene insularum, Sirmio, insularumque ocelle, quascumque in liquentibus stagnis marique vasto fert uterque Neptunus, quam te libenter quamque laetus inviso, vix mi ipse credens Thuniam atque Bithunos liquisse campos et videre te in tuto. o quid solutis est beatius curis, cum mens onus reponit, ac peregrino labore fessi venimus larem ad nostrum, desideratoque acquiescimus lecto? hoc est quod unum est pro laboribus tantis. salve, o venusta Sirmio, atque ero gaude gaudente, vosque, o Lydiae lacus undae, ridete quidquid est domi cachinnorum.';
+if verLessThan('matlab','8.1') ==1
+warning('This function uses routine strjoin and works just with Matlab &amp;gt;=2013a')
+else
+Newstr=wraptextFS(str)
+end</t>
+  </si>
+  <si>
+    <t>clear all; close all;
+% The dataset is bi-dimensional and contain two collinear groups with
+% regression structure. One group is dense, with 1000 units; the second
+% has 100 units. Thinning in done according to the density of the values
+% predicted by the OLS fit.
+x1 = randn(1000,1);
+x2 = 8 + randn(100,1);
+x = [x1 ; x2];
+y = 5*x + 0.9*randn(1100,1);
+b = [ones(1100,1) , x] \ y;
+yhat = [ones(1100,1) , x] * b;
+plot(x,y,'.',x,yhat);
+%x3 = 0.2 + 0.01*randn(1000,1);
+%y3 = 40 + 0.01*randn(1000,1);
+%plot(x,y,'.',x,yhat,'--',x3,y3,'.');
+% thinning over the predicted values
+%[Wt,pretain] = wthin([yhat ; y3], 'retainby','comp2one');
+[Wt,pretain] = wthin(yhat, 'retainby','comp2one');
+figure;
+plot(x(Wt,:),y(Wt,:),'k.',x(~Wt,:),y(~Wt,:),'r.');
+drawnow;
+axis manual;
+title('univariate thinning over predicted ols values')
+clickableMultiLegend(['Retained: ' num2str(sum(Wt))],['Thinned:   ' num2str(sum(~Wt))]);</t>
+  </si>
+  <si>
+    <t>NameFile='tclust';
+[docNode,docNodechr]=xmlcreateFS(NameFile,'write2file',false);</t>
+  </si>
+  <si>
+    <t>n=200;
+v=3;
+randn('state', 123456);
+Y=randn(n,v);
+% Contaminated data
+Ycont=Y;
+Ycont(1:5,:)=Ycont(1:5,:)+10;
+[out]=zscoreFS(Ycont);</t>
+  </si>
 </sst>
 </file>
 
@@ -1676,7 +2854,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1686,14 +2864,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1716,6086 +2898,6086 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D2">
-        <v>15.643514</v>
+        <v>16.482372000000002</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>138</v>
+      <c r="F2" s="3" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>124</v>
       </c>
       <c r="D3">
-        <v>0.61452499999999999</v>
+        <v>0.65615500000000004</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>138</v>
+      <c r="F3" s="3" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D4">
-        <v>0.478325</v>
+        <v>0.57237300000000002</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="3" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B5" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D5">
-        <v>4.3288270000000004</v>
+        <v>4.647329</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>140</v>
+      <c r="F5" s="3" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>124</v>
       </c>
       <c r="D6">
-        <v>1.388809</v>
+        <v>1.597893</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>140</v>
+      <c r="F6" s="3" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="B7" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>125</v>
       </c>
       <c r="D7">
-        <v>0.321882</v>
+        <v>0.33646100000000001</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>140</v>
+      <c r="F7" s="3" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D8">
-        <v>0.88744500000000004</v>
+        <v>0.94436600000000004</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>141</v>
+      <c r="F8" s="3" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="3" t="s">
         <v>124</v>
       </c>
       <c r="D9">
-        <v>1.2321139999999999</v>
+        <v>1.5202800000000001</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>141</v>
+      <c r="F9" s="3" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D10">
-        <v>4.4207429999999999</v>
+        <v>4.5379199999999997</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>142</v>
+      <c r="F10" s="3" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D11">
-        <v>1.2480830000000001</v>
+        <v>1.4121010000000001</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>143</v>
+      <c r="F11" s="3" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="3" t="s">
         <v>124</v>
       </c>
       <c r="D12">
-        <v>1.1465179999999999</v>
+        <v>1.300691</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>143</v>
+      <c r="F12" s="3" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="B13" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D13">
-        <v>26.743884999999999</v>
+        <v>27.021132999999999</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>144</v>
+      <c r="F13" s="3" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="B14" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>124</v>
       </c>
       <c r="D14">
-        <v>1.9936309999999999</v>
+        <v>2.2803840000000002</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>144</v>
+      <c r="F14" s="3" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D15">
-        <v>0.33609899999999998</v>
+        <v>0.31073699999999999</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="3" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="B16" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D16">
-        <v>0.42692200000000002</v>
+        <v>0.41409699999999999</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>146</v>
+      <c r="F16" s="3" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="B17" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>124</v>
       </c>
       <c r="D17">
-        <v>0.32428600000000002</v>
+        <v>0.33631100000000003</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>146</v>
+      <c r="F17" s="3" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="B18" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>125</v>
       </c>
       <c r="D18">
-        <v>0.44972299999999998</v>
+        <v>0.41766399999999998</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>146</v>
+      <c r="F18" s="3" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="B19" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D19">
-        <v>0.35633599999999999</v>
+        <v>0.40594599999999997</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>147</v>
+      <c r="F19" s="3" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="B20" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>124</v>
       </c>
       <c r="D20">
-        <v>0.40927599999999997</v>
+        <v>0.381915</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>147</v>
+      <c r="F20" s="3" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="B21" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>125</v>
       </c>
       <c r="D21">
-        <v>0.43856000000000001</v>
+        <v>0.40902300000000003</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>147</v>
+      <c r="F21" s="3" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C22" s="1" t="s">
+      <c r="B22" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>126</v>
       </c>
       <c r="D22">
-        <v>0.47574</v>
+        <v>0.50983800000000001</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>147</v>
+      <c r="F22" s="3" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C23" s="1" t="s">
+      <c r="B23" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>127</v>
       </c>
       <c r="D23">
-        <v>0.39890100000000001</v>
+        <v>0.43266100000000002</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>147</v>
+      <c r="F23" s="3" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C24" s="1" t="s">
+      <c r="B24" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D24">
-        <v>0.26380199999999998</v>
+        <v>0.30853799999999998</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>148</v>
+      <c r="F24" s="3" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C25" s="1" t="s">
+      <c r="B25" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>124</v>
       </c>
       <c r="D25">
-        <v>0.418736</v>
+        <v>0.47053099999999998</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>148</v>
+      <c r="F25" s="3" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C26" s="1" t="s">
+      <c r="B26" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>125</v>
       </c>
       <c r="D26">
-        <v>0.33311600000000002</v>
+        <v>0.34887299999999999</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>148</v>
+      <c r="F26" s="3" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D27">
-        <v>0.30537199999999998</v>
+        <v>0.31245499999999998</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>149</v>
+      <c r="F27" s="3" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D28">
-        <v>0.399503</v>
+        <v>0.41549199999999997</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>150</v>
+      <c r="F28" s="3" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="3" t="s">
         <v>124</v>
       </c>
       <c r="D29">
-        <v>54.126331999999998</v>
+        <v>51.300899000000001</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>150</v>
+      <c r="F29" s="3" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="3" t="s">
         <v>125</v>
       </c>
       <c r="D30">
-        <v>0.39108500000000002</v>
+        <v>0.39128200000000002</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>150</v>
+      <c r="F30" s="3" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="3" t="s">
         <v>126</v>
       </c>
       <c r="D31">
-        <v>2.7477809999999998</v>
+        <v>2.392039</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>150</v>
+      <c r="F31" s="3" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D32">
-        <v>0.36825799999999997</v>
+        <v>0.41239999999999999</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>151</v>
+      <c r="F32" s="3" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="3" t="s">
         <v>124</v>
       </c>
       <c r="D33">
-        <v>2.3910089999999999</v>
+        <v>2.3676590000000002</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>151</v>
+      <c r="F33" s="3" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="3" t="s">
         <v>125</v>
       </c>
       <c r="D34">
-        <v>0.86749799999999999</v>
+        <v>3.1110159999999998</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>151</v>
+      <c r="F34" s="3" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="3" t="s">
         <v>126</v>
       </c>
       <c r="D35">
-        <v>48.943767000000001</v>
+        <v>45.536622000000001</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>151</v>
+      <c r="F35" s="3" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C36" s="1" t="s">
+      <c r="B36" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D36">
-        <v>0.31247200000000003</v>
+        <v>0.300344</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>152</v>
+      <c r="F36" s="3" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C37" s="1" t="s">
+      <c r="B37" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>124</v>
       </c>
       <c r="D37">
-        <v>0.28529900000000002</v>
+        <v>0.28666399999999997</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>152</v>
+      <c r="F37" s="3" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C38" s="1" t="s">
+      <c r="B38" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>125</v>
       </c>
       <c r="D38">
-        <v>1.768465</v>
+        <v>1.972324</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>152</v>
+      <c r="F38" s="3" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C39" s="1" t="s">
+      <c r="B39" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>126</v>
       </c>
       <c r="D39">
-        <v>1.6918610000000001</v>
+        <v>1.764324</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>152</v>
+      <c r="F39" s="3" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C40" s="1" t="s">
+      <c r="B40" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>127</v>
       </c>
       <c r="D40">
-        <v>0.51069299999999995</v>
+        <v>0.57766600000000001</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
-      <c r="F40" s="1" t="s">
-        <v>152</v>
+      <c r="F40" s="3" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C41" s="1" t="s">
+      <c r="B41" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>128</v>
       </c>
       <c r="D41">
-        <v>0.46108900000000003</v>
+        <v>0.436386</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
-      <c r="F41" s="1" t="s">
-        <v>152</v>
+      <c r="F41" s="3" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C42" s="1" t="s">
+      <c r="B42" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D42">
-        <v>0.51755600000000002</v>
+        <v>0.50625900000000001</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
-      <c r="F42" s="1" t="s">
-        <v>153</v>
+      <c r="F42" s="3" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C43" s="1" t="s">
+      <c r="B43" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>124</v>
       </c>
       <c r="D43">
-        <v>0.45196799999999998</v>
+        <v>0.49603999999999998</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
-      <c r="F43" s="1" t="s">
-        <v>153</v>
+      <c r="F43" s="3" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C44" s="1" t="s">
+      <c r="B44" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>125</v>
       </c>
       <c r="D44">
-        <v>0.47112799999999999</v>
+        <v>0.56637400000000004</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
-      <c r="F44" s="1" t="s">
-        <v>153</v>
+      <c r="F44" s="3" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C45" s="1" t="s">
+      <c r="B45" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D45">
-        <v>0.38808700000000002</v>
+        <v>0.40784900000000002</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
-      <c r="F45" s="1" t="s">
-        <v>154</v>
+      <c r="F45" s="3" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C46" s="1" t="s">
+      <c r="B46" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>124</v>
       </c>
       <c r="D46">
-        <v>0.39984599999999998</v>
+        <v>0.43146200000000001</v>
       </c>
       <c r="E46">
         <v>0</v>
       </c>
-      <c r="F46" s="1" t="s">
-        <v>154</v>
+      <c r="F46" s="3" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C47" s="1" t="s">
+      <c r="B47" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D47">
-        <v>0.31134899999999999</v>
+        <v>0.27600599999999997</v>
       </c>
       <c r="E47">
         <v>0</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="F47" s="3" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C48" s="1" t="s">
+      <c r="B48" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>124</v>
       </c>
       <c r="D48">
-        <v>0.28924699999999998</v>
+        <v>0.29335600000000001</v>
       </c>
       <c r="E48">
         <v>0</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="F48" s="3" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C49" s="1" t="s">
+      <c r="B49" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D49">
-        <v>0.26550400000000002</v>
+        <v>0.29391200000000001</v>
       </c>
       <c r="E49">
         <v>0</v>
       </c>
-      <c r="F49" s="1" t="s">
-        <v>156</v>
+      <c r="F49" s="3" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C50" s="1" t="s">
+      <c r="B50" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>124</v>
       </c>
       <c r="D50">
-        <v>0.24865000000000001</v>
+        <v>0.26800499999999999</v>
       </c>
       <c r="E50">
         <v>0</v>
       </c>
-      <c r="F50" s="1" t="s">
-        <v>156</v>
+      <c r="F50" s="3" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C51" s="1" t="s">
+      <c r="B51" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D51">
-        <v>0.49310599999999999</v>
+        <v>0.46657799999999999</v>
       </c>
       <c r="E51">
         <v>0</v>
       </c>
-      <c r="F51" s="1" t="s">
-        <v>157</v>
+      <c r="F51" s="3" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C52" s="1" t="s">
+      <c r="B52" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D52">
-        <v>0.273586</v>
+        <v>0.27281</v>
       </c>
       <c r="E52">
         <v>0</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="F52" s="3" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C53" s="1" t="s">
+      <c r="B53" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>124</v>
       </c>
       <c r="D53">
-        <v>0.25199300000000002</v>
+        <v>0.30055300000000001</v>
       </c>
       <c r="E53">
         <v>0</v>
       </c>
-      <c r="F53" s="1" t="s">
+      <c r="F53" s="3" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C54" s="1" t="s">
+      <c r="B54" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D54">
-        <v>0.75387000000000004</v>
+        <v>0.80905700000000003</v>
       </c>
       <c r="E54">
         <v>0</v>
       </c>
-      <c r="F54" s="1" t="s">
-        <v>159</v>
+      <c r="F54" s="3" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C55" s="1" t="s">
+      <c r="B55" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D55">
-        <v>0.55166099999999996</v>
+        <v>0.458951</v>
       </c>
       <c r="E55">
         <v>0</v>
       </c>
-      <c r="F55" s="1" t="s">
-        <v>160</v>
+      <c r="F55" s="3" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C56" s="1" t="s">
+      <c r="B56" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D56">
-        <v>0.40875400000000001</v>
+        <v>0.36960799999999999</v>
       </c>
       <c r="E56">
         <v>0</v>
       </c>
-      <c r="F56" s="1" t="s">
-        <v>161</v>
+      <c r="F56" s="3" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C57" s="1" t="s">
+      <c r="B57" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D57">
-        <v>0.397503</v>
+        <v>0.37536399999999998</v>
       </c>
       <c r="E57">
         <v>0</v>
       </c>
-      <c r="F57" s="1" t="s">
-        <v>162</v>
+      <c r="F57" s="3" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C58" s="1" t="s">
+      <c r="B58" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>124</v>
       </c>
       <c r="D58">
-        <v>0.36965799999999999</v>
+        <v>0.39755000000000001</v>
       </c>
       <c r="E58">
         <v>0</v>
       </c>
-      <c r="F58" s="1" t="s">
-        <v>162</v>
+      <c r="F58" s="3" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C59" s="1" t="s">
+      <c r="B59" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D59">
-        <v>0.384438</v>
+        <v>0.38498700000000002</v>
       </c>
       <c r="E59">
         <v>0</v>
       </c>
-      <c r="F59" s="1" t="s">
-        <v>163</v>
+      <c r="F59" s="3" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D60">
-        <v>14.768043</v>
+        <v>12.330852</v>
       </c>
       <c r="E60">
         <v>0</v>
       </c>
-      <c r="F60" s="1" t="s">
-        <v>164</v>
+      <c r="F60" s="3" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="3" t="s">
         <v>124</v>
       </c>
       <c r="D61">
-        <v>10.947029000000001</v>
+        <v>7.5799529999999997</v>
       </c>
       <c r="E61">
         <v>0</v>
       </c>
-      <c r="F61" s="1" t="s">
-        <v>164</v>
+      <c r="F61" s="3" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C62" s="1" t="s">
+      <c r="B62" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C62" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D62">
-        <v>0.31413099999999999</v>
+        <v>0.30631000000000003</v>
       </c>
       <c r="E62">
         <v>0</v>
       </c>
-      <c r="F62" s="1" t="s">
+      <c r="F62" s="3" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C63" s="1" t="s">
+      <c r="B63" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C63" s="3" t="s">
         <v>124</v>
       </c>
       <c r="D63">
-        <v>1.100284</v>
+        <v>1.213255</v>
       </c>
       <c r="E63">
         <v>0</v>
       </c>
-      <c r="F63" s="1" t="s">
+      <c r="F63" s="3" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C64" s="1" t="s">
+      <c r="B64" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C64" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D64">
-        <v>0.434446</v>
+        <v>0.44827</v>
       </c>
       <c r="E64">
         <v>0</v>
       </c>
-      <c r="F64" s="1" t="s">
-        <v>166</v>
+      <c r="F64" s="3" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="s">
+      <c r="A65" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C65" s="1" t="s">
+      <c r="B65" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D65">
-        <v>0.36411399999999999</v>
+        <v>0.44294800000000001</v>
       </c>
       <c r="E65">
         <v>0</v>
       </c>
-      <c r="F65" s="1" t="s">
-        <v>167</v>
+      <c r="F65" s="3" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="s">
+      <c r="A66" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C66" s="1" t="s">
+      <c r="B66" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D66">
-        <v>0.39765400000000001</v>
+        <v>0.37517800000000001</v>
       </c>
       <c r="E66">
         <v>0</v>
       </c>
-      <c r="F66" s="1" t="s">
-        <v>168</v>
+      <c r="F66" s="3" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="s">
+      <c r="A67" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C67" s="1" t="s">
+      <c r="B67" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D67">
-        <v>0.408883</v>
+        <v>0.44934400000000002</v>
       </c>
       <c r="E67">
         <v>0</v>
       </c>
-      <c r="F67" s="1" t="s">
-        <v>169</v>
+      <c r="F67" s="3" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="s">
+      <c r="A68" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C68" s="1" t="s">
+      <c r="B68" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C68" s="3" t="s">
         <v>124</v>
       </c>
       <c r="D68">
-        <v>0.44884400000000002</v>
+        <v>0.49911899999999998</v>
       </c>
       <c r="E68">
         <v>0</v>
       </c>
-      <c r="F68" s="1" t="s">
-        <v>169</v>
+      <c r="F68" s="3" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="s">
+      <c r="A69" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C69" s="1" t="s">
+      <c r="B69" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C69" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D69">
-        <v>0.43168099999999998</v>
+        <v>0.39423200000000003</v>
       </c>
       <c r="E69">
         <v>0</v>
       </c>
-      <c r="F69" s="1" t="s">
-        <v>170</v>
+      <c r="F69" s="3" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="s">
+      <c r="A70" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C70" s="1" t="s">
+      <c r="B70" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C70" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D70">
-        <v>48.523819000000003</v>
+        <v>56.266018000000003</v>
       </c>
       <c r="E70">
         <v>0</v>
       </c>
-      <c r="F70" s="1" t="s">
-        <v>171</v>
+      <c r="F70" s="3" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="s">
+      <c r="A71" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C71" s="1" t="s">
+      <c r="B71" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>124</v>
       </c>
       <c r="D71">
-        <v>29.431484999999999</v>
+        <v>34.192663000000003</v>
       </c>
       <c r="E71">
         <v>0</v>
       </c>
-      <c r="F71" s="1" t="s">
-        <v>171</v>
+      <c r="F71" s="3" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="s">
+      <c r="A72" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C72" s="1" t="s">
+      <c r="B72" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C72" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D72">
-        <v>6.847836</v>
+        <v>7.9792759999999996</v>
       </c>
       <c r="E72">
         <v>0</v>
       </c>
-      <c r="F72" s="1" t="s">
-        <v>172</v>
+      <c r="F72" s="3" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="s">
+      <c r="A73" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C73" s="1" t="s">
+      <c r="B73" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C73" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D73">
-        <v>1.7462439999999999</v>
+        <v>1.954631</v>
       </c>
       <c r="E73">
         <v>0</v>
       </c>
-      <c r="F73" s="1" t="s">
-        <v>173</v>
+      <c r="F73" s="3" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="s">
+      <c r="A74" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C74" s="1" t="s">
+      <c r="B74" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C74" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D74">
-        <v>5.1694339999999999</v>
+        <v>5.9064839999999998</v>
       </c>
       <c r="E74">
         <v>0</v>
       </c>
-      <c r="F74" s="1" t="s">
-        <v>174</v>
+      <c r="F74" s="3" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="s">
+      <c r="A75" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C75" s="1" t="s">
+      <c r="B75" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C75" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D75">
-        <v>0.28946100000000002</v>
+        <v>0.29403000000000001</v>
       </c>
       <c r="E75">
         <v>0</v>
       </c>
-      <c r="F75" s="1" t="s">
-        <v>175</v>
+      <c r="F75" s="3" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="s">
+      <c r="A76" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C76" s="1" t="s">
+      <c r="B76" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C76" s="3" t="s">
         <v>124</v>
       </c>
       <c r="D76">
-        <v>0.27195000000000003</v>
+        <v>0.27989900000000001</v>
       </c>
       <c r="E76">
         <v>0</v>
       </c>
-      <c r="F76" s="1" t="s">
-        <v>175</v>
+      <c r="F76" s="3" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="s">
+      <c r="A77" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B77" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C77" s="1" t="s">
+      <c r="B77" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C77" s="3" t="s">
         <v>125</v>
       </c>
       <c r="D77">
-        <v>0.26888699999999999</v>
+        <v>0.30387999999999998</v>
       </c>
       <c r="E77">
         <v>0</v>
       </c>
-      <c r="F77" s="1" t="s">
-        <v>175</v>
+      <c r="F77" s="3" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="s">
+      <c r="A78" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B78" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C78" s="1" t="s">
+      <c r="B78" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C78" s="3" t="s">
         <v>126</v>
       </c>
       <c r="D78">
-        <v>0.95931100000000002</v>
+        <v>1.054745</v>
       </c>
       <c r="E78">
         <v>0</v>
       </c>
-      <c r="F78" s="1" t="s">
-        <v>175</v>
+      <c r="F78" s="3" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="s">
+      <c r="A79" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C79" s="1" t="s">
+      <c r="B79" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C79" s="3" t="s">
         <v>127</v>
       </c>
       <c r="D79">
-        <v>9.1375080000000004</v>
+        <v>10.552727000000001</v>
       </c>
       <c r="E79">
         <v>0</v>
       </c>
-      <c r="F79" s="1" t="s">
-        <v>175</v>
+      <c r="F79" s="3" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="s">
+      <c r="A80" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C80" s="1" t="s">
+      <c r="B80" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C80" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D80">
-        <v>0.37442700000000001</v>
+        <v>0.420153</v>
       </c>
       <c r="E80">
         <v>0</v>
       </c>
-      <c r="F80" s="1" t="s">
-        <v>176</v>
+      <c r="F80" s="3" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="s">
+      <c r="A81" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C81" s="1" t="s">
+      <c r="B81" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C81" s="3" t="s">
         <v>124</v>
       </c>
       <c r="D81">
-        <v>0.42408000000000001</v>
+        <v>0.40215600000000001</v>
       </c>
       <c r="E81">
         <v>0</v>
       </c>
-      <c r="F81" s="1" t="s">
-        <v>176</v>
+      <c r="F81" s="3" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="s">
+      <c r="A82" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C82" s="1" t="s">
+      <c r="B82" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C82" s="3" t="s">
         <v>125</v>
       </c>
       <c r="D82">
-        <v>0.43398599999999998</v>
+        <v>0.38186100000000001</v>
       </c>
       <c r="E82">
         <v>0</v>
       </c>
-      <c r="F82" s="1" t="s">
-        <v>176</v>
+      <c r="F82" s="3" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="s">
+      <c r="A83" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C83" s="1" t="s">
+      <c r="B83" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C83" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D83">
-        <v>0.41119899999999998</v>
+        <v>0.38261699999999998</v>
       </c>
       <c r="E83">
         <v>0</v>
       </c>
-      <c r="F83" s="1" t="s">
-        <v>177</v>
+      <c r="F83" s="3" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="s">
+      <c r="A84" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B84" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C84" s="1" t="s">
+      <c r="B84" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C84" s="3" t="s">
         <v>124</v>
       </c>
       <c r="D84">
-        <v>0.609371</v>
+        <v>0.614923</v>
       </c>
       <c r="E84">
         <v>0</v>
       </c>
-      <c r="F84" s="1" t="s">
-        <v>177</v>
+      <c r="F84" s="3" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="s">
+      <c r="A85" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B85" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C85" s="1" t="s">
+      <c r="B85" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C85" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D85">
-        <v>0.36066799999999999</v>
+        <v>0.37617699999999998</v>
       </c>
       <c r="E85">
         <v>0</v>
       </c>
-      <c r="F85" s="1" t="s">
-        <v>178</v>
+      <c r="F85" s="3" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="s">
+      <c r="A86" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B86" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C86" s="1" t="s">
+      <c r="B86" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C86" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D86">
-        <v>0.435919</v>
+        <v>0.38648900000000003</v>
       </c>
       <c r="E86">
         <v>0</v>
       </c>
-      <c r="F86" s="1" t="s">
-        <v>179</v>
+      <c r="F86" s="3" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="s">
+      <c r="A87" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B87" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C87" s="1" t="s">
+      <c r="B87" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C87" s="3" t="s">
         <v>124</v>
       </c>
       <c r="D87">
-        <v>0.373</v>
+        <v>0.38607200000000003</v>
       </c>
       <c r="E87">
         <v>0</v>
       </c>
-      <c r="F87" s="1" t="s">
-        <v>179</v>
+      <c r="F87" s="3" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="1" t="s">
+      <c r="A88" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C88" s="1" t="s">
+      <c r="B88" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C88" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D88">
-        <v>0.40146999999999999</v>
+        <v>0.39806200000000003</v>
       </c>
       <c r="E88">
         <v>0</v>
       </c>
-      <c r="F88" s="1" t="s">
-        <v>180</v>
+      <c r="F88" s="3" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="s">
+      <c r="A89" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B89" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C89" s="1" t="s">
+      <c r="B89" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C89" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D89">
-        <v>0.57421900000000003</v>
+        <v>0.63636599999999999</v>
       </c>
       <c r="E89">
         <v>0</v>
       </c>
-      <c r="F89" s="1" t="s">
-        <v>181</v>
+      <c r="F89" s="3" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="s">
+      <c r="A90" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B90" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C90" s="1" t="s">
+      <c r="B90" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C90" s="3" t="s">
         <v>124</v>
       </c>
       <c r="D90">
-        <v>0.399733</v>
+        <v>0.40999099999999999</v>
       </c>
       <c r="E90">
         <v>0</v>
       </c>
-      <c r="F90" s="1" t="s">
-        <v>181</v>
+      <c r="F90" s="3" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="1" t="s">
+      <c r="A91" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B91" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C91" s="1" t="s">
+      <c r="B91" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C91" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D91">
-        <v>1.0867770000000001</v>
+        <v>1.177657</v>
       </c>
       <c r="E91">
         <v>0</v>
       </c>
-      <c r="F91" s="1" t="s">
-        <v>182</v>
+      <c r="F91" s="3" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="1" t="s">
+      <c r="A92" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B92" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C92" s="1" t="s">
+      <c r="B92" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C92" s="3" t="s">
         <v>124</v>
       </c>
       <c r="D92">
-        <v>1.705624</v>
+        <v>1.8329169999999999</v>
       </c>
       <c r="E92">
         <v>0</v>
       </c>
-      <c r="F92" s="1" t="s">
-        <v>182</v>
+      <c r="F92" s="3" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="1" t="s">
+      <c r="A93" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B93" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C93" s="1" t="s">
+      <c r="B93" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C93" s="3" t="s">
         <v>125</v>
       </c>
       <c r="D93">
-        <v>0.32099100000000003</v>
+        <v>0.33844299999999999</v>
       </c>
       <c r="E93">
         <v>0</v>
       </c>
-      <c r="F93" s="1" t="s">
-        <v>182</v>
+      <c r="F93" s="3" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="s">
+      <c r="A94" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B94" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C94" s="1" t="s">
+      <c r="B94" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C94" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D94">
-        <v>0.51318299999999994</v>
+        <v>0.51986500000000002</v>
       </c>
       <c r="E94">
         <v>0</v>
       </c>
-      <c r="F94" s="1" t="s">
-        <v>183</v>
+      <c r="F94" s="3" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="s">
+      <c r="A95" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B95" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C95" s="1" t="s">
+      <c r="B95" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C95" s="3" t="s">
         <v>124</v>
       </c>
       <c r="D95">
-        <v>1.0415840000000001</v>
+        <v>1.1202570000000001</v>
       </c>
       <c r="E95">
         <v>0</v>
       </c>
-      <c r="F95" s="1" t="s">
-        <v>183</v>
+      <c r="F95" s="3" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="s">
+      <c r="A96" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B96" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C96" s="1" t="s">
+      <c r="B96" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C96" s="3" t="s">
         <v>125</v>
       </c>
       <c r="D96">
-        <v>0.49706800000000001</v>
+        <v>0.568685</v>
       </c>
       <c r="E96">
         <v>0</v>
       </c>
-      <c r="F96" s="1" t="s">
-        <v>183</v>
+      <c r="F96" s="3" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="1" t="s">
+      <c r="A97" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B97" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C97" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D97">
-        <v>0.25931700000000002</v>
+        <v>0.29781099999999999</v>
       </c>
       <c r="E97">
         <v>0</v>
       </c>
-      <c r="F97" s="1" t="s">
+      <c r="F97" s="3" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="s">
+      <c r="A98" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B98" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C98" s="3" t="s">
         <v>124</v>
       </c>
       <c r="D98">
-        <v>0.260625</v>
+        <v>0.26821</v>
       </c>
       <c r="E98">
         <v>0</v>
       </c>
-      <c r="F98" s="1" t="s">
+      <c r="F98" s="3" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="s">
+      <c r="A99" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B99" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C99" s="1" t="s">
+      <c r="B99" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C99" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D99">
-        <v>0.83642799999999995</v>
+        <v>1.041552</v>
       </c>
       <c r="E99">
         <v>0</v>
       </c>
-      <c r="F99" s="1" t="s">
-        <v>185</v>
+      <c r="F99" s="3" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="s">
+      <c r="A100" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B100" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C100" s="1" t="s">
+      <c r="B100" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C100" s="3" t="s">
         <v>124</v>
       </c>
       <c r="D100">
-        <v>1.0583180000000001</v>
+        <v>1.1762220000000001</v>
       </c>
       <c r="E100">
         <v>0</v>
       </c>
-      <c r="F100" s="1" t="s">
-        <v>185</v>
+      <c r="F100" s="3" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="1" t="s">
+      <c r="A101" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B101" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C101" s="1" t="s">
+      <c r="B101" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C101" s="3" t="s">
         <v>125</v>
       </c>
       <c r="D101">
-        <v>1.1123449999999999</v>
+        <v>1.200985</v>
       </c>
       <c r="E101">
         <v>0</v>
       </c>
-      <c r="F101" s="1" t="s">
-        <v>185</v>
+      <c r="F101" s="3" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="1" t="s">
+      <c r="A102" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B102" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C102" s="1" t="s">
+      <c r="B102" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C102" s="3" t="s">
         <v>126</v>
       </c>
       <c r="D102">
-        <v>0.328573</v>
+        <v>0.348387</v>
       </c>
       <c r="E102">
         <v>0</v>
       </c>
-      <c r="F102" s="1" t="s">
-        <v>185</v>
+      <c r="F102" s="3" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="1" t="s">
+      <c r="A103" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B103" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C103" s="1" t="s">
+      <c r="B103" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C103" s="3" t="s">
         <v>127</v>
       </c>
       <c r="D103">
-        <v>1.1787190000000001</v>
+        <v>1.2987770000000001</v>
       </c>
       <c r="E103">
         <v>0</v>
       </c>
-      <c r="F103" s="1" t="s">
-        <v>185</v>
+      <c r="F103" s="3" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="1" t="s">
+      <c r="A104" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B104" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C104" s="1" t="s">
+      <c r="B104" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C104" s="3" t="s">
         <v>128</v>
       </c>
       <c r="D104">
-        <v>2.0789499999999999</v>
+        <v>2.5368400000000002</v>
       </c>
       <c r="E104">
         <v>0</v>
       </c>
-      <c r="F104" s="1" t="s">
-        <v>185</v>
+      <c r="F104" s="3" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="1" t="s">
+      <c r="A105" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B105" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="C105" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D105">
-        <v>0.27433200000000002</v>
+        <v>0.29407499999999998</v>
       </c>
       <c r="E105">
         <v>0</v>
       </c>
-      <c r="F105" s="1" t="s">
-        <v>186</v>
+      <c r="F105" s="3" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="1" t="s">
+      <c r="A106" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B106" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C106" s="3" t="s">
         <v>124</v>
       </c>
       <c r="D106">
-        <v>0.31705</v>
+        <v>0.30110199999999998</v>
       </c>
       <c r="E106">
         <v>0</v>
       </c>
-      <c r="F106" s="1" t="s">
-        <v>186</v>
+      <c r="F106" s="3" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="1" t="s">
+      <c r="A107" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B107" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="C107" s="3" t="s">
         <v>125</v>
       </c>
       <c r="D107">
-        <v>0.26633299999999999</v>
+        <v>0.267959</v>
       </c>
       <c r="E107">
         <v>0</v>
       </c>
-      <c r="F107" s="1" t="s">
-        <v>186</v>
+      <c r="F107" s="3" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="1" t="s">
+      <c r="A108" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="B108" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="C108" s="3" t="s">
         <v>126</v>
       </c>
       <c r="D108">
-        <v>0.27690999999999999</v>
+        <v>0.26894899999999999</v>
       </c>
       <c r="E108">
         <v>0</v>
       </c>
-      <c r="F108" s="1" t="s">
-        <v>186</v>
+      <c r="F108" s="3" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="1" t="s">
+      <c r="A109" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B109" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="C109" s="3" t="s">
         <v>127</v>
       </c>
       <c r="D109">
-        <v>0.263488</v>
+        <v>0.27334399999999998</v>
       </c>
       <c r="E109">
         <v>0</v>
       </c>
-      <c r="F109" s="1" t="s">
-        <v>186</v>
+      <c r="F109" s="3" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="1" t="s">
+      <c r="A110" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="B110" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="C110" s="3" t="s">
         <v>128</v>
       </c>
       <c r="D110">
-        <v>0.25236799999999998</v>
+        <v>0.28701300000000002</v>
       </c>
       <c r="E110">
         <v>0</v>
       </c>
-      <c r="F110" s="1" t="s">
-        <v>186</v>
+      <c r="F110" s="3" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="1" t="s">
+      <c r="A111" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B111" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C111" s="1" t="s">
+      <c r="B111" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C111" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D111">
-        <v>0.28439999999999999</v>
+        <v>0.34790900000000002</v>
       </c>
       <c r="E111">
         <v>0</v>
       </c>
-      <c r="F111" s="1" t="s">
-        <v>187</v>
+      <c r="F111" s="3" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="1" t="s">
+      <c r="A112" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B112" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C112" s="1" t="s">
+      <c r="B112" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C112" s="3" t="s">
         <v>128</v>
       </c>
       <c r="D112">
-        <v>0.289549</v>
+        <v>0.31819700000000001</v>
       </c>
       <c r="E112">
         <v>0</v>
       </c>
-      <c r="F112" s="1" t="s">
-        <v>187</v>
+      <c r="F112" s="3" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="1" t="s">
+      <c r="A113" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B113" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C113" s="1" t="s">
+      <c r="B113" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C113" s="3" t="s">
         <v>129</v>
       </c>
       <c r="D113">
-        <v>155.82606200000001</v>
+        <v>167.56842700000001</v>
       </c>
       <c r="E113">
         <v>0</v>
       </c>
-      <c r="F113" s="1" t="s">
-        <v>187</v>
+      <c r="F113" s="3" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="1" t="s">
+      <c r="A114" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B114" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C114" s="1" t="s">
+      <c r="B114" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C114" s="3" t="s">
         <v>130</v>
       </c>
       <c r="D114">
-        <v>2.64392</v>
+        <v>3.1278649999999999</v>
       </c>
       <c r="E114">
         <v>0</v>
       </c>
-      <c r="F114" s="1" t="s">
-        <v>187</v>
+      <c r="F114" s="3" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="1" t="s">
+      <c r="A115" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B115" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C115" s="1" t="s">
+      <c r="B115" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C115" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D115">
-        <v>0.34832400000000002</v>
+        <v>0.30754399999999998</v>
       </c>
       <c r="E115">
         <v>0</v>
       </c>
-      <c r="F115" s="1" t="s">
-        <v>188</v>
+      <c r="F115" s="3" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="1" t="s">
+      <c r="A116" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="B116" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="C116" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D116">
-        <v>0.33903</v>
+        <v>0.35595700000000002</v>
       </c>
       <c r="E116">
         <v>0</v>
       </c>
-      <c r="F116" s="1" t="s">
+      <c r="F116" s="3" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="s">
+      <c r="A117" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="B117" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="C117" s="3" t="s">
         <v>124</v>
       </c>
       <c r="D117">
-        <v>0.26820699999999997</v>
+        <v>0.27026899999999998</v>
       </c>
       <c r="E117">
         <v>0</v>
       </c>
-      <c r="F117" s="1" t="s">
+      <c r="F117" s="3" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="s">
+      <c r="A118" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="B118" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="C118" s="3" t="s">
         <v>125</v>
       </c>
       <c r="D118">
-        <v>0.43568000000000001</v>
+        <v>0.49466599999999999</v>
       </c>
       <c r="E118">
         <v>0</v>
       </c>
-      <c r="F118" s="1" t="s">
+      <c r="F118" s="3" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="1" t="s">
+      <c r="A119" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="B119" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="C119" s="3" t="s">
         <v>126</v>
       </c>
       <c r="D119">
-        <v>4.6262920000000003</v>
+        <v>5.4167399999999999</v>
       </c>
       <c r="E119">
         <v>0</v>
       </c>
-      <c r="F119" s="1" t="s">
+      <c r="F119" s="3" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="1" t="s">
+      <c r="A120" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B120" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C120" s="1" t="s">
+      <c r="B120" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C120" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D120">
-        <v>0.27886699999999998</v>
+        <v>0.34609899999999999</v>
       </c>
       <c r="E120">
         <v>0</v>
       </c>
-      <c r="F120" s="1" t="s">
-        <v>190</v>
+      <c r="F120" s="3" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="1" t="s">
+      <c r="A121" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B121" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C121" s="1" t="s">
+      <c r="B121" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C121" s="3" t="s">
         <v>124</v>
       </c>
       <c r="D121">
-        <v>0.27577699999999999</v>
+        <v>0.284244</v>
       </c>
       <c r="E121">
         <v>0</v>
       </c>
-      <c r="F121" s="1" t="s">
-        <v>190</v>
+      <c r="F121" s="3" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="1" t="s">
+      <c r="A122" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B122" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C122" s="1" t="s">
+      <c r="B122" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C122" s="3" t="s">
         <v>125</v>
       </c>
       <c r="D122">
-        <v>0.30197400000000002</v>
+        <v>0.287962</v>
       </c>
       <c r="E122">
         <v>0</v>
       </c>
-      <c r="F122" s="1" t="s">
-        <v>190</v>
+      <c r="F122" s="3" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="1" t="s">
+      <c r="A123" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B123" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C123" s="1" t="s">
+      <c r="B123" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C123" s="3" t="s">
         <v>126</v>
       </c>
       <c r="D123">
-        <v>0.29089999999999999</v>
+        <v>0.32726</v>
       </c>
       <c r="E123">
         <v>0</v>
       </c>
-      <c r="F123" s="1" t="s">
-        <v>190</v>
+      <c r="F123" s="3" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="1" t="s">
+      <c r="A124" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="B124" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="C124" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D124">
-        <v>0.29428500000000002</v>
+        <v>0.34131600000000001</v>
       </c>
       <c r="E124">
         <v>0</v>
       </c>
-      <c r="F124" s="1" t="s">
+      <c r="F124" s="3" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="1" t="s">
+      <c r="A125" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="B125" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C125" s="1" t="s">
+      <c r="C125" s="3" t="s">
         <v>124</v>
       </c>
       <c r="D125">
-        <v>12.009380999999999</v>
+        <v>8.6941410000000001</v>
       </c>
       <c r="E125">
         <v>0</v>
       </c>
-      <c r="F125" s="1" t="s">
+      <c r="F125" s="3" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="1" t="s">
+      <c r="A126" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B126" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C126" s="1" t="s">
+      <c r="B126" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C126" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D126">
-        <v>0.32641900000000001</v>
+        <v>0.32255400000000001</v>
       </c>
       <c r="E126">
         <v>0</v>
       </c>
-      <c r="F126" s="1" t="s">
-        <v>192</v>
+      <c r="F126" s="3" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="1" t="s">
+      <c r="A127" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B127" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C127" s="1" t="s">
+      <c r="B127" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C127" s="3" t="s">
         <v>124</v>
       </c>
       <c r="D127">
-        <v>0.27520099999999997</v>
+        <v>0.29397299999999998</v>
       </c>
       <c r="E127">
         <v>0</v>
       </c>
-      <c r="F127" s="1" t="s">
-        <v>192</v>
+      <c r="F127" s="3" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="1" t="s">
+      <c r="A128" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B128" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C128" s="1" t="s">
+      <c r="B128" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C128" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D128">
-        <v>2.0045320000000002</v>
+        <v>2.1200869999999998</v>
       </c>
       <c r="E128">
         <v>0</v>
       </c>
-      <c r="F128" s="1" t="s">
-        <v>193</v>
+      <c r="F128" s="3" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="1" t="s">
+      <c r="A129" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B129" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C129" s="1" t="s">
+      <c r="B129" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C129" s="3" t="s">
         <v>124</v>
       </c>
       <c r="D129">
-        <v>2.0541179999999999</v>
+        <v>2.3251249999999999</v>
       </c>
       <c r="E129">
         <v>0</v>
       </c>
-      <c r="F129" s="1" t="s">
-        <v>193</v>
+      <c r="F129" s="3" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="1" t="s">
+      <c r="A130" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B130" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C130" s="1" t="s">
+      <c r="B130" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C130" s="3" t="s">
         <v>125</v>
       </c>
       <c r="D130">
-        <v>0.62303600000000003</v>
+        <v>0.633938</v>
       </c>
       <c r="E130">
         <v>0</v>
       </c>
-      <c r="F130" s="1" t="s">
-        <v>193</v>
+      <c r="F130" s="3" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="1" t="s">
+      <c r="A131" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B131" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C131" s="1" t="s">
+      <c r="B131" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C131" s="3" t="s">
         <v>126</v>
       </c>
       <c r="D131">
-        <v>0.52798800000000001</v>
+        <v>0.53462299999999996</v>
       </c>
       <c r="E131">
         <v>0</v>
       </c>
-      <c r="F131" s="1" t="s">
-        <v>193</v>
+      <c r="F131" s="3" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="1" t="s">
+      <c r="A132" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B132" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C132" s="1" t="s">
+      <c r="B132" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C132" s="3" t="s">
         <v>127</v>
       </c>
       <c r="D132">
-        <v>0.410993</v>
+        <v>0.40543099999999999</v>
       </c>
       <c r="E132">
         <v>0</v>
       </c>
-      <c r="F132" s="1" t="s">
-        <v>193</v>
+      <c r="F132" s="3" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="1" t="s">
+      <c r="A133" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B133" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C133" s="1" t="s">
+      <c r="B133" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C133" s="3" t="s">
         <v>128</v>
       </c>
       <c r="D133">
-        <v>0.56739600000000001</v>
+        <v>0.58518199999999998</v>
       </c>
       <c r="E133">
         <v>0</v>
       </c>
-      <c r="F133" s="1" t="s">
-        <v>193</v>
+      <c r="F133" s="3" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="1" t="s">
+      <c r="A134" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B134" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C134" s="1" t="s">
+      <c r="B134" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C134" s="3" t="s">
         <v>129</v>
       </c>
       <c r="D134">
-        <v>0.30360700000000002</v>
+        <v>0.32849699999999998</v>
       </c>
       <c r="E134">
         <v>0</v>
       </c>
-      <c r="F134" s="1" t="s">
-        <v>193</v>
+      <c r="F134" s="3" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="1" t="s">
+      <c r="A135" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B135" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C135" s="1" t="s">
+      <c r="B135" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C135" s="3" t="s">
         <v>130</v>
       </c>
       <c r="D135">
-        <v>0.96919699999999998</v>
+        <v>0.99731800000000004</v>
       </c>
       <c r="E135">
         <v>0</v>
       </c>
-      <c r="F135" s="1" t="s">
-        <v>193</v>
+      <c r="F135" s="3" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="1" t="s">
+      <c r="A136" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B136" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C136" s="1" t="s">
+      <c r="B136" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C136" s="3" t="s">
         <v>131</v>
       </c>
       <c r="D136">
-        <v>1.570379</v>
+        <v>1.7056910000000001</v>
       </c>
       <c r="E136">
         <v>0</v>
       </c>
-      <c r="F136" s="1" t="s">
-        <v>193</v>
+      <c r="F136" s="3" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="1" t="s">
+      <c r="A137" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B137" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C137" s="1" t="s">
+      <c r="B137" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C137" s="3" t="s">
         <v>132</v>
       </c>
       <c r="D137">
-        <v>1.4089970000000001</v>
+        <v>1.505166</v>
       </c>
       <c r="E137">
         <v>0</v>
       </c>
-      <c r="F137" s="1" t="s">
-        <v>193</v>
+      <c r="F137" s="3" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="1" t="s">
+      <c r="A138" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B138" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C138" s="1" t="s">
+      <c r="B138" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C138" s="3" t="s">
         <v>133</v>
       </c>
       <c r="D138">
-        <v>2.2665730000000002</v>
+        <v>2.404671</v>
       </c>
       <c r="E138">
         <v>0</v>
       </c>
-      <c r="F138" s="1" t="s">
-        <v>193</v>
+      <c r="F138" s="3" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="1" t="s">
+      <c r="A139" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B139" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C139" s="1" t="s">
+      <c r="B139" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C139" s="3" t="s">
         <v>134</v>
       </c>
       <c r="D139">
-        <v>2.1283020000000001</v>
+        <v>2.2401179999999998</v>
       </c>
       <c r="E139">
         <v>0</v>
       </c>
-      <c r="F139" s="1" t="s">
-        <v>193</v>
+      <c r="F139" s="3" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="1" t="s">
+      <c r="A140" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="B140" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C140" s="1" t="s">
+      <c r="C140" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D140">
-        <v>0.32125900000000002</v>
+        <v>0.40215000000000001</v>
       </c>
       <c r="E140">
         <v>0</v>
       </c>
-      <c r="F140" s="1" t="s">
-        <v>194</v>
+      <c r="F140" s="3" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="1" t="s">
+      <c r="A141" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B141" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C141" s="1" t="s">
+      <c r="B141" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C141" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D141">
-        <v>0.85580999999999996</v>
+        <v>0.93694200000000005</v>
       </c>
       <c r="E141">
         <v>0</v>
       </c>
-      <c r="F141" s="1" t="s">
-        <v>195</v>
+      <c r="F141" s="3" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="1" t="s">
+      <c r="A142" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B142" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C142" s="1" t="s">
+      <c r="B142" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C142" s="3" t="s">
         <v>124</v>
       </c>
       <c r="D142">
-        <v>0.58120700000000003</v>
+        <v>0.66566999999999998</v>
       </c>
       <c r="E142">
         <v>0</v>
       </c>
-      <c r="F142" s="1" t="s">
-        <v>195</v>
+      <c r="F142" s="3" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="1" t="s">
+      <c r="A143" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B143" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C143" s="1" t="s">
+      <c r="B143" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C143" s="3" t="s">
         <v>125</v>
       </c>
       <c r="D143">
-        <v>0.49619099999999999</v>
+        <v>0.47578700000000002</v>
       </c>
       <c r="E143">
         <v>0</v>
       </c>
-      <c r="F143" s="1" t="s">
-        <v>195</v>
+      <c r="F143" s="3" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="1" t="s">
+      <c r="A144" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B144" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C144" s="1" t="s">
+      <c r="B144" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C144" s="3" t="s">
         <v>126</v>
       </c>
       <c r="D144">
-        <v>5.2369940000000001</v>
+        <v>5.2706099999999996</v>
       </c>
       <c r="E144">
         <v>0</v>
       </c>
-      <c r="F144" s="1" t="s">
-        <v>195</v>
+      <c r="F144" s="3" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="1" t="s">
+      <c r="A145" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B145" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C145" s="1" t="s">
+      <c r="B145" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C145" s="3" t="s">
         <v>127</v>
       </c>
       <c r="D145">
-        <v>8.1859529999999996</v>
+        <v>8.4012740000000008</v>
       </c>
       <c r="E145">
         <v>0</v>
       </c>
-      <c r="F145" s="1" t="s">
-        <v>195</v>
+      <c r="F145" s="3" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="1" t="s">
+      <c r="A146" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B146" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C146" s="1" t="s">
+      <c r="B146" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C146" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D146">
-        <v>0.34561399999999998</v>
+        <v>0.382942</v>
       </c>
       <c r="E146">
         <v>0</v>
       </c>
-      <c r="F146" s="1" t="s">
-        <v>196</v>
+      <c r="F146" s="3" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="1" t="s">
+      <c r="A147" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B147" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C147" s="1" t="s">
+      <c r="B147" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C147" s="3" t="s">
         <v>124</v>
       </c>
       <c r="D147">
-        <v>0.69714299999999996</v>
+        <v>0.61240799999999995</v>
       </c>
       <c r="E147">
         <v>0</v>
       </c>
-      <c r="F147" s="1" t="s">
-        <v>196</v>
+      <c r="F147" s="3" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="1" t="s">
+      <c r="A148" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B148" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C148" s="1" t="s">
+      <c r="B148" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C148" s="3" t="s">
         <v>125</v>
       </c>
       <c r="D148">
-        <v>6.9864740000000003</v>
+        <v>7.2518609999999999</v>
       </c>
       <c r="E148">
         <v>0</v>
       </c>
-      <c r="F148" s="1" t="s">
-        <v>196</v>
+      <c r="F148" s="3" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="1" t="s">
+      <c r="A149" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B149" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C149" s="1" t="s">
+      <c r="B149" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C149" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D149">
-        <v>0.62289300000000003</v>
+        <v>0.61165199999999997</v>
       </c>
       <c r="E149">
         <v>0</v>
       </c>
-      <c r="F149" s="1" t="s">
-        <v>197</v>
+      <c r="F149" s="3" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="1" t="s">
+      <c r="A150" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B150" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C150" s="1" t="s">
+      <c r="B150" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C150" s="3" t="s">
         <v>124</v>
       </c>
       <c r="D150">
-        <v>0.30737500000000001</v>
+        <v>0.33410899999999999</v>
       </c>
       <c r="E150">
         <v>0</v>
       </c>
-      <c r="F150" s="1" t="s">
-        <v>197</v>
+      <c r="F150" s="3" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="1" t="s">
+      <c r="A151" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B151" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C151" s="1" t="s">
+      <c r="B151" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C151" s="3" t="s">
         <v>125</v>
       </c>
       <c r="D151">
-        <v>0.35514600000000002</v>
+        <v>0.29994900000000002</v>
       </c>
       <c r="E151">
         <v>0</v>
       </c>
-      <c r="F151" s="1" t="s">
-        <v>197</v>
+      <c r="F151" s="3" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="1" t="s">
+      <c r="A152" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B152" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C152" s="1" t="s">
+      <c r="B152" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C152" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D152">
-        <v>0.39511400000000002</v>
+        <v>0.429512</v>
       </c>
       <c r="E152">
         <v>0</v>
       </c>
-      <c r="F152" s="1" t="s">
-        <v>198</v>
+      <c r="F152" s="3" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="1" t="s">
+      <c r="A153" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B153" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C153" s="1" t="s">
+      <c r="B153" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C153" s="3" t="s">
         <v>124</v>
       </c>
       <c r="D153">
-        <v>0.44841599999999998</v>
+        <v>0.47521999999999998</v>
       </c>
       <c r="E153">
         <v>0</v>
       </c>
-      <c r="F153" s="1" t="s">
-        <v>198</v>
+      <c r="F153" s="3" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="1" t="s">
+      <c r="A154" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B154" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C154" s="1" t="s">
+      <c r="B154" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C154" s="3" t="s">
         <v>125</v>
       </c>
       <c r="D154">
-        <v>0.31174200000000002</v>
+        <v>0.30208499999999999</v>
       </c>
       <c r="E154">
         <v>0</v>
       </c>
-      <c r="F154" s="1" t="s">
-        <v>198</v>
+      <c r="F154" s="3" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="1" t="s">
+      <c r="A155" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B155" s="1" t="s">
+      <c r="B155" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C155" s="1" t="s">
+      <c r="C155" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D155">
-        <v>0.89605800000000002</v>
+        <v>1.045571</v>
       </c>
       <c r="E155">
         <v>0</v>
       </c>
-      <c r="F155" s="1" t="s">
-        <v>199</v>
+      <c r="F155" s="3" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="1" t="s">
+      <c r="A156" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B156" s="1" t="s">
+      <c r="B156" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C156" s="1" t="s">
+      <c r="C156" s="3" t="s">
         <v>124</v>
       </c>
       <c r="D156">
-        <v>0.32376100000000002</v>
+        <v>0.33139999999999997</v>
       </c>
       <c r="E156">
         <v>0</v>
       </c>
-      <c r="F156" s="1" t="s">
-        <v>199</v>
+      <c r="F156" s="3" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="1" t="s">
+      <c r="A157" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B157" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C157" s="1" t="s">
+      <c r="B157" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C157" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D157">
-        <v>0.30233300000000002</v>
+        <v>0.328733</v>
       </c>
       <c r="E157">
         <v>0</v>
       </c>
-      <c r="F157" s="1" t="s">
+      <c r="F157" s="3" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="1" t="s">
+      <c r="A158" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B158" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C158" s="1" t="s">
+      <c r="B158" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C158" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D158">
-        <v>0.50601099999999999</v>
+        <v>0.63886500000000002</v>
       </c>
       <c r="E158">
         <v>0</v>
       </c>
-      <c r="F158" s="1" t="s">
-        <v>201</v>
+      <c r="F158" s="3" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="1" t="s">
+      <c r="A159" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B159" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C159" s="1" t="s">
+      <c r="B159" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C159" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D159">
-        <v>0.40045700000000001</v>
+        <v>0.32784799999999997</v>
       </c>
       <c r="E159">
         <v>0</v>
       </c>
-      <c r="F159" s="1" t="s">
+      <c r="F159" s="3" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="1" t="s">
+      <c r="A160" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B160" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C160" s="1" t="s">
+      <c r="B160" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C160" s="3" t="s">
         <v>124</v>
       </c>
       <c r="D160">
-        <v>0.38007000000000002</v>
+        <v>0.39776400000000001</v>
       </c>
       <c r="E160">
         <v>0</v>
       </c>
-      <c r="F160" s="1" t="s">
+      <c r="F160" s="3" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="1" t="s">
+      <c r="A161" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B161" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C161" s="1" t="s">
+      <c r="B161" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C161" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D161">
-        <v>0.41551900000000003</v>
+        <v>0.39679999999999999</v>
       </c>
       <c r="E161">
         <v>0</v>
       </c>
-      <c r="F161" s="1" t="s">
-        <v>203</v>
+      <c r="F161" s="3" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="1" t="s">
+      <c r="A162" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B162" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C162" s="1" t="s">
+      <c r="B162" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C162" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D162">
-        <v>0.44253900000000002</v>
+        <v>0.422377</v>
       </c>
       <c r="E162">
         <v>0</v>
       </c>
-      <c r="F162" s="1" t="s">
-        <v>204</v>
+      <c r="F162" s="3" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="1" t="s">
+      <c r="A163" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B163" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C163" s="1" t="s">
+      <c r="B163" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C163" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D163">
-        <v>0.44692700000000002</v>
+        <v>0.42047299999999999</v>
       </c>
       <c r="E163">
         <v>0</v>
       </c>
-      <c r="F163" s="1" t="s">
-        <v>205</v>
+      <c r="F163" s="3" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="1" t="s">
+      <c r="A164" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B164" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C164" s="1" t="s">
+      <c r="B164" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C164" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D164">
-        <v>0.392457</v>
+        <v>0.39987</v>
       </c>
       <c r="E164">
         <v>0</v>
       </c>
-      <c r="F164" s="1" t="s">
-        <v>206</v>
+      <c r="F164" s="3" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="1" t="s">
+      <c r="A165" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B165" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C165" s="1" t="s">
+      <c r="B165" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C165" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D165">
-        <v>0.399316</v>
+        <v>0.401509</v>
       </c>
       <c r="E165">
         <v>0</v>
       </c>
-      <c r="F165" s="1" t="s">
-        <v>207</v>
+      <c r="F165" s="3" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="1" t="s">
+      <c r="A166" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B166" s="1" t="s">
+      <c r="B166" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C166" s="1" t="s">
+      <c r="C166" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D166">
-        <v>11.654175</v>
+        <v>11.778077</v>
       </c>
       <c r="E166">
         <v>0</v>
       </c>
-      <c r="F166" s="1" t="s">
-        <v>208</v>
+      <c r="F166" s="3" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="1" t="s">
+      <c r="A167" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B167" s="1" t="s">
+      <c r="B167" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C167" s="1" t="s">
+      <c r="C167" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D167">
-        <v>26.338204999999999</v>
+        <v>27.650925999999998</v>
       </c>
       <c r="E167">
         <v>0</v>
       </c>
-      <c r="F167" s="1" t="s">
-        <v>208</v>
+      <c r="F167" s="3" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="1" t="s">
+      <c r="A168" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B168" s="1" t="s">
+      <c r="B168" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C168" s="1" t="s">
+      <c r="C168" s="3" t="s">
         <v>124</v>
       </c>
       <c r="D168">
-        <v>23.831800000000001</v>
+        <v>24.20975</v>
       </c>
       <c r="E168">
         <v>0</v>
       </c>
-      <c r="F168" s="1" t="s">
-        <v>208</v>
+      <c r="F168" s="3" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="1" t="s">
+      <c r="A169" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B169" s="1" t="s">
+      <c r="B169" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C169" s="1" t="s">
+      <c r="C169" s="3" t="s">
         <v>125</v>
       </c>
       <c r="D169">
-        <v>24.271498000000001</v>
+        <v>23.712025000000001</v>
       </c>
       <c r="E169">
         <v>0</v>
       </c>
-      <c r="F169" s="1" t="s">
-        <v>208</v>
+      <c r="F169" s="3" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="1" t="s">
+      <c r="A170" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B170" s="1" t="s">
+      <c r="B170" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C170" s="1" t="s">
+      <c r="C170" s="3" t="s">
         <v>126</v>
       </c>
       <c r="D170">
-        <v>23.848727</v>
+        <v>23.822299000000001</v>
       </c>
       <c r="E170">
         <v>0</v>
       </c>
-      <c r="F170" s="1" t="s">
-        <v>208</v>
+      <c r="F170" s="3" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="1" t="s">
+      <c r="A171" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B171" s="1" t="s">
+      <c r="B171" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C171" s="1" t="s">
+      <c r="C171" s="3" t="s">
         <v>127</v>
       </c>
       <c r="D171">
-        <v>23.926448000000001</v>
+        <v>24.085564000000002</v>
       </c>
       <c r="E171">
         <v>0</v>
       </c>
-      <c r="F171" s="1" t="s">
-        <v>208</v>
+      <c r="F171" s="3" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="1" t="s">
+      <c r="A172" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B172" s="1" t="s">
+      <c r="B172" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C172" s="1" t="s">
+      <c r="C172" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D172">
-        <v>4.713838</v>
+        <v>5.4807670000000002</v>
       </c>
       <c r="E172">
         <v>0</v>
       </c>
-      <c r="F172" s="1" t="s">
-        <v>209</v>
+      <c r="F172" s="3" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="1" t="s">
+      <c r="A173" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B173" s="1" t="s">
+      <c r="B173" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C173" s="1" t="s">
+      <c r="C173" s="3" t="s">
         <v>124</v>
       </c>
       <c r="D173">
-        <v>2.573356</v>
+        <v>2.8228710000000001</v>
       </c>
       <c r="E173">
         <v>0</v>
       </c>
-      <c r="F173" s="1" t="s">
-        <v>209</v>
+      <c r="F173" s="3" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="1" t="s">
+      <c r="A174" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B174" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C174" s="1" t="s">
+      <c r="B174" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C174" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D174">
-        <v>0.38113799999999998</v>
+        <v>0.40254200000000001</v>
       </c>
       <c r="E174">
         <v>0</v>
       </c>
-      <c r="F174" s="1" t="s">
-        <v>210</v>
+      <c r="F174" s="3" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="1" t="s">
+      <c r="A175" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B175" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C175" s="1" t="s">
+      <c r="B175" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C175" s="3" t="s">
         <v>124</v>
       </c>
       <c r="D175">
-        <v>0.43354399999999998</v>
+        <v>0.48397400000000002</v>
       </c>
       <c r="E175">
         <v>0</v>
       </c>
-      <c r="F175" s="1" t="s">
-        <v>210</v>
+      <c r="F175" s="3" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="1" t="s">
+      <c r="A176" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B176" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C176" s="1" t="s">
+      <c r="B176" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C176" s="3" t="s">
         <v>125</v>
       </c>
       <c r="D176">
-        <v>0.29457100000000003</v>
+        <v>0.29280800000000001</v>
       </c>
       <c r="E176">
         <v>0</v>
       </c>
-      <c r="F176" s="1" t="s">
-        <v>210</v>
+      <c r="F176" s="3" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="1" t="s">
+      <c r="A177" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B177" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C177" s="1" t="s">
+      <c r="B177" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C177" s="3" t="s">
         <v>126</v>
       </c>
       <c r="D177">
-        <v>0.27288200000000001</v>
+        <v>0.32302999999999998</v>
       </c>
       <c r="E177">
         <v>0</v>
       </c>
-      <c r="F177" s="1" t="s">
-        <v>210</v>
+      <c r="F177" s="3" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="1" t="s">
+      <c r="A178" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B178" s="1" t="s">
+      <c r="B178" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C178" s="1" t="s">
+      <c r="C178" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D178">
-        <v>64.396396999999993</v>
+        <v>69.520365999999996</v>
       </c>
       <c r="E178">
         <v>0</v>
       </c>
-      <c r="F178" s="1" t="s">
-        <v>211</v>
+      <c r="F178" s="3" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="1" t="s">
+      <c r="A179" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B179" s="1" t="s">
+      <c r="B179" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C179" s="1" t="s">
+      <c r="C179" s="3" t="s">
         <v>124</v>
       </c>
       <c r="D179">
-        <v>0.35107100000000002</v>
+        <v>0.39779199999999998</v>
       </c>
       <c r="E179">
         <v>0</v>
       </c>
-      <c r="F179" s="1" t="s">
-        <v>211</v>
+      <c r="F179" s="3" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="1" t="s">
+      <c r="A180" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B180" s="1" t="s">
+      <c r="B180" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C180" s="1" t="s">
+      <c r="C180" s="3" t="s">
         <v>125</v>
       </c>
       <c r="D180">
-        <v>0.35722399999999999</v>
+        <v>0.39890399999999998</v>
       </c>
       <c r="E180">
         <v>0</v>
       </c>
-      <c r="F180" s="1" t="s">
-        <v>211</v>
+      <c r="F180" s="3" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="1" t="s">
+      <c r="A181" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B181" s="1" t="s">
+      <c r="B181" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C181" s="1" t="s">
+      <c r="C181" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D181">
-        <v>0.35306900000000002</v>
+        <v>0.37079299999999998</v>
       </c>
       <c r="E181">
         <v>0</v>
       </c>
-      <c r="F181" s="1" t="s">
+      <c r="F181" s="3" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="1" t="s">
+      <c r="A182" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B182" s="1" t="s">
+      <c r="B182" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C182" s="1" t="s">
+      <c r="C182" s="3" t="s">
         <v>124</v>
       </c>
       <c r="D182">
-        <v>0.30804300000000001</v>
+        <v>0.32486199999999998</v>
       </c>
       <c r="E182">
         <v>0</v>
       </c>
-      <c r="F182" s="1" t="s">
+      <c r="F182" s="3" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="1" t="s">
+      <c r="A183" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B183" s="1" t="s">
+      <c r="B183" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C183" s="1" t="s">
+      <c r="C183" s="3" t="s">
         <v>125</v>
       </c>
       <c r="D183">
-        <v>0.41303899999999999</v>
+        <v>0.53041000000000005</v>
       </c>
       <c r="E183">
         <v>0</v>
       </c>
-      <c r="F183" s="1" t="s">
+      <c r="F183" s="3" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="1" t="s">
+      <c r="A184" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B184" s="1" t="s">
+      <c r="B184" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C184" s="1" t="s">
+      <c r="C184" s="3" t="s">
         <v>126</v>
       </c>
       <c r="D184">
-        <v>0.41213100000000003</v>
+        <v>0.41061900000000001</v>
       </c>
       <c r="E184">
         <v>0</v>
       </c>
-      <c r="F184" s="1" t="s">
+      <c r="F184" s="3" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="1" t="s">
+      <c r="A185" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B185" s="1" t="s">
+      <c r="B185" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C185" s="1" t="s">
+      <c r="C185" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D185">
-        <v>4.0080210000000003</v>
+        <v>4.2051639999999999</v>
       </c>
       <c r="E185">
         <v>0</v>
       </c>
-      <c r="F185" s="1" t="s">
-        <v>213</v>
+      <c r="F185" s="3" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="1" t="s">
+      <c r="A186" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B186" s="1" t="s">
+      <c r="B186" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C186" s="1" t="s">
+      <c r="C186" s="3" t="s">
         <v>124</v>
       </c>
       <c r="D186">
-        <v>3.133594</v>
+        <v>3.2086000000000001</v>
       </c>
       <c r="E186">
         <v>0</v>
       </c>
-      <c r="F186" s="1" t="s">
-        <v>213</v>
+      <c r="F186" s="3" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="1" t="s">
+      <c r="A187" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B187" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C187" s="1" t="s">
+      <c r="B187" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C187" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D187">
-        <v>0.280667</v>
+        <v>0.298989</v>
       </c>
       <c r="E187">
         <v>0</v>
       </c>
-      <c r="F187" s="1" t="s">
-        <v>214</v>
+      <c r="F187" s="3" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="1" t="s">
+      <c r="A188" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B188" s="1" t="s">
+      <c r="B188" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C188" s="1" t="s">
+      <c r="C188" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D188">
-        <v>0.25054399999999999</v>
+        <v>0.27294600000000002</v>
       </c>
       <c r="E188">
         <v>0</v>
       </c>
-      <c r="F188" s="1" t="s">
-        <v>215</v>
+      <c r="F188" s="3" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="1" t="s">
+      <c r="A189" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B189" s="1" t="s">
+      <c r="B189" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C189" s="1" t="s">
+      <c r="C189" s="3" t="s">
         <v>124</v>
       </c>
       <c r="D189">
-        <v>0.26491500000000001</v>
+        <v>0.27959299999999998</v>
       </c>
       <c r="E189">
         <v>0</v>
       </c>
-      <c r="F189" s="1" t="s">
-        <v>215</v>
+      <c r="F189" s="3" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="1" t="s">
+      <c r="A190" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B190" s="1" t="s">
+      <c r="B190" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C190" s="1" t="s">
+      <c r="C190" s="3" t="s">
         <v>125</v>
       </c>
       <c r="D190">
-        <v>0.25364199999999998</v>
+        <v>0.27293699999999999</v>
       </c>
       <c r="E190">
         <v>0</v>
       </c>
-      <c r="F190" s="1" t="s">
-        <v>215</v>
+      <c r="F190" s="3" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="1" t="s">
+      <c r="A191" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B191" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C191" s="1" t="s">
+      <c r="B191" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C191" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D191">
-        <v>0.25890999999999997</v>
+        <v>0.27484399999999998</v>
       </c>
       <c r="E191">
         <v>0</v>
       </c>
-      <c r="F191" s="1" t="s">
-        <v>216</v>
+      <c r="F191" s="3" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="1" t="s">
+      <c r="A192" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B192" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C192" s="1" t="s">
+      <c r="B192" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C192" s="3" t="s">
         <v>124</v>
       </c>
       <c r="D192">
-        <v>0.27246599999999999</v>
+        <v>0.28365200000000002</v>
       </c>
       <c r="E192">
         <v>0</v>
       </c>
-      <c r="F192" s="1" t="s">
-        <v>216</v>
+      <c r="F192" s="3" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="1" t="s">
+      <c r="A193" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B193" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C193" s="1" t="s">
+      <c r="B193" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C193" s="3" t="s">
         <v>125</v>
       </c>
       <c r="D193">
-        <v>0.25259599999999999</v>
+        <v>0.26991399999999999</v>
       </c>
       <c r="E193">
         <v>0</v>
       </c>
-      <c r="F193" s="1" t="s">
-        <v>216</v>
+      <c r="F193" s="3" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="1" t="s">
+      <c r="A194" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B194" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C194" s="1" t="s">
+      <c r="B194" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C194" s="3" t="s">
         <v>126</v>
       </c>
       <c r="D194">
-        <v>1.7682340000000001</v>
+        <v>1.9381090000000001</v>
       </c>
       <c r="E194">
         <v>0</v>
       </c>
-      <c r="F194" s="1" t="s">
-        <v>216</v>
+      <c r="F194" s="3" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="1" t="s">
+      <c r="A195" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B195" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C195" s="1" t="s">
+      <c r="B195" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C195" s="3" t="s">
         <v>127</v>
       </c>
       <c r="D195">
-        <v>1.6422460000000001</v>
+        <v>1.7930470000000001</v>
       </c>
       <c r="E195">
         <v>0</v>
       </c>
-      <c r="F195" s="1" t="s">
-        <v>216</v>
+      <c r="F195" s="3" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="1" t="s">
+      <c r="A196" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B196" s="1" t="s">
+      <c r="B196" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C196" s="1" t="s">
+      <c r="C196" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D196">
-        <v>0.24834000000000001</v>
+        <v>0.26116699999999998</v>
       </c>
       <c r="E196">
         <v>0</v>
       </c>
-      <c r="F196" s="1" t="s">
+      <c r="F196" s="3" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="1" t="s">
+      <c r="A197" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B197" s="1" t="s">
+      <c r="B197" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C197" s="1" t="s">
+      <c r="C197" s="3" t="s">
         <v>124</v>
       </c>
       <c r="D197">
-        <v>0.26070300000000002</v>
+        <v>0.27724700000000002</v>
       </c>
       <c r="E197">
         <v>0</v>
       </c>
-      <c r="F197" s="1" t="s">
+      <c r="F197" s="3" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="1" t="s">
+      <c r="A198" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B198" s="1" t="s">
+      <c r="B198" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C198" s="1" t="s">
+      <c r="C198" s="3" t="s">
         <v>125</v>
       </c>
       <c r="D198">
-        <v>0.25229000000000001</v>
+        <v>0.26996399999999998</v>
       </c>
       <c r="E198">
         <v>0</v>
       </c>
-      <c r="F198" s="1" t="s">
+      <c r="F198" s="3" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="1" t="s">
+      <c r="A199" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B199" s="1" t="s">
+      <c r="B199" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C199" s="1" t="s">
+      <c r="C199" s="3" t="s">
         <v>126</v>
       </c>
       <c r="D199">
-        <v>0.45162799999999997</v>
+        <v>0.538825</v>
       </c>
       <c r="E199">
         <v>0</v>
       </c>
-      <c r="F199" s="1" t="s">
+      <c r="F199" s="3" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="1" t="s">
+      <c r="A200" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B200" s="1" t="s">
+      <c r="B200" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C200" s="1" t="s">
+      <c r="C200" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D200">
-        <v>0.28325299999999998</v>
+        <v>0.30944899999999997</v>
       </c>
       <c r="E200">
         <v>0</v>
       </c>
-      <c r="F200" s="1" t="s">
-        <v>218</v>
+      <c r="F200" s="3" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="1" t="s">
+      <c r="A201" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B201" s="1" t="s">
+      <c r="B201" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C201" s="1" t="s">
+      <c r="C201" s="3" t="s">
         <v>124</v>
       </c>
       <c r="D201">
-        <v>0.27887400000000001</v>
+        <v>0.30052800000000002</v>
       </c>
       <c r="E201">
         <v>0</v>
       </c>
-      <c r="F201" s="1" t="s">
-        <v>218</v>
+      <c r="F201" s="3" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="1" t="s">
+      <c r="A202" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B202" s="1" t="s">
+      <c r="B202" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C202" s="1" t="s">
+      <c r="C202" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D202">
-        <v>0.28710599999999997</v>
+        <v>0.27999000000000002</v>
       </c>
       <c r="E202">
         <v>0</v>
       </c>
-      <c r="F202" s="1" t="s">
-        <v>219</v>
+      <c r="F202" s="3" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="1" t="s">
+      <c r="A203" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B203" s="1" t="s">
+      <c r="B203" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C203" s="1" t="s">
+      <c r="C203" s="3" t="s">
         <v>124</v>
       </c>
       <c r="D203">
-        <v>0.249061</v>
+        <v>0.27187</v>
       </c>
       <c r="E203">
         <v>0</v>
       </c>
-      <c r="F203" s="1" t="s">
-        <v>219</v>
+      <c r="F203" s="3" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="1" t="s">
+      <c r="A204" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B204" s="1" t="s">
+      <c r="B204" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C204" s="1" t="s">
+      <c r="C204" s="3" t="s">
         <v>125</v>
       </c>
       <c r="D204">
-        <v>0.25298999999999999</v>
+        <v>0.284694</v>
       </c>
       <c r="E204">
         <v>0</v>
       </c>
-      <c r="F204" s="1" t="s">
-        <v>219</v>
+      <c r="F204" s="3" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="1" t="s">
+      <c r="A205" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B205" s="1" t="s">
+      <c r="B205" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C205" s="1" t="s">
+      <c r="C205" s="3" t="s">
         <v>126</v>
       </c>
       <c r="D205">
-        <v>0.106556</v>
+        <v>0.09844</v>
       </c>
       <c r="E205">
         <v>0</v>
       </c>
-      <c r="F205" s="1" t="s">
-        <v>219</v>
+      <c r="F205" s="3" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="1" t="s">
+      <c r="A206" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B206" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C206" s="1" t="s">
+      <c r="B206" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C206" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D206">
-        <v>0.86375400000000002</v>
+        <v>0.90611900000000001</v>
       </c>
       <c r="E206">
         <v>0</v>
       </c>
-      <c r="F206" s="1" t="s">
-        <v>220</v>
+      <c r="F206" s="3" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="1" t="s">
+      <c r="A207" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B207" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C207" s="1" t="s">
+      <c r="B207" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C207" s="3" t="s">
         <v>124</v>
       </c>
       <c r="D207">
-        <v>1.1893290000000001</v>
+        <v>1.1794020000000001</v>
       </c>
       <c r="E207">
         <v>0</v>
       </c>
-      <c r="F207" s="1" t="s">
-        <v>220</v>
+      <c r="F207" s="3" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="1" t="s">
+      <c r="A208" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B208" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C208" s="1" t="s">
+      <c r="B208" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C208" s="3" t="s">
         <v>125</v>
       </c>
       <c r="D208">
-        <v>0.57150800000000002</v>
+        <v>0.54840199999999995</v>
       </c>
       <c r="E208">
         <v>0</v>
       </c>
-      <c r="F208" s="1" t="s">
-        <v>220</v>
+      <c r="F208" s="3" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="209">
-      <c r="A209" s="1" t="s">
+      <c r="A209" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B209" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C209" s="1" t="s">
+      <c r="B209" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C209" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D209">
-        <v>0.31254399999999999</v>
+        <v>0.34388800000000003</v>
       </c>
       <c r="E209">
         <v>0</v>
       </c>
-      <c r="F209" s="1" t="s">
+      <c r="F209" s="3" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="1" t="s">
+      <c r="A210" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B210" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C210" s="1" t="s">
+      <c r="B210" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C210" s="3" t="s">
         <v>124</v>
       </c>
       <c r="D210">
-        <v>0.29526200000000002</v>
+        <v>0.32673999999999997</v>
       </c>
       <c r="E210">
         <v>0</v>
       </c>
-      <c r="F210" s="1" t="s">
+      <c r="F210" s="3" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="1" t="s">
+      <c r="A211" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B211" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C211" s="1" t="s">
+      <c r="B211" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C211" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D211">
-        <v>0.53345200000000004</v>
+        <v>0.56224200000000002</v>
       </c>
       <c r="E211">
         <v>0</v>
       </c>
-      <c r="F211" s="1" t="s">
-        <v>222</v>
+      <c r="F211" s="3" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="1" t="s">
+      <c r="A212" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B212" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C212" s="1" t="s">
+      <c r="B212" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C212" s="3" t="s">
         <v>124</v>
       </c>
       <c r="D212">
-        <v>0.49599799999999999</v>
+        <v>0.50663899999999995</v>
       </c>
       <c r="E212">
         <v>0</v>
       </c>
-      <c r="F212" s="1" t="s">
-        <v>222</v>
+      <c r="F212" s="3" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="1" t="s">
+      <c r="A213" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B213" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C213" s="1" t="s">
+      <c r="B213" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C213" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D213">
-        <v>0.44244899999999998</v>
+        <v>0.46767999999999998</v>
       </c>
       <c r="E213">
         <v>0</v>
       </c>
-      <c r="F213" s="1" t="s">
-        <v>223</v>
+      <c r="F213" s="3" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="1" t="s">
+      <c r="A214" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B214" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C214" s="1" t="s">
+      <c r="B214" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C214" s="3" t="s">
         <v>124</v>
       </c>
       <c r="D214">
-        <v>0.39166099999999998</v>
+        <v>0.42147899999999999</v>
       </c>
       <c r="E214">
         <v>0</v>
       </c>
-      <c r="F214" s="1" t="s">
-        <v>223</v>
+      <c r="F214" s="3" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="1" t="s">
+      <c r="A215" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B215" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C215" s="1" t="s">
+      <c r="B215" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C215" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D215">
-        <v>0.46395199999999998</v>
+        <v>0.49357600000000001</v>
       </c>
       <c r="E215">
         <v>0</v>
       </c>
-      <c r="F215" s="1" t="s">
-        <v>224</v>
+      <c r="F215" s="3" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="1" t="s">
+      <c r="A216" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B216" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C216" s="1" t="s">
+      <c r="B216" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C216" s="3" t="s">
         <v>124</v>
       </c>
       <c r="D216">
-        <v>0.457173</v>
+        <v>0.49810399999999999</v>
       </c>
       <c r="E216">
         <v>0</v>
       </c>
-      <c r="F216" s="1" t="s">
-        <v>224</v>
+      <c r="F216" s="3" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="1" t="s">
+      <c r="A217" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B217" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C217" s="1" t="s">
+      <c r="B217" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C217" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D217">
-        <v>0.42116700000000001</v>
+        <v>0.45095400000000002</v>
       </c>
       <c r="E217">
         <v>0</v>
       </c>
-      <c r="F217" s="1" t="s">
-        <v>225</v>
+      <c r="F217" s="3" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="1" t="s">
+      <c r="A218" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B218" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C218" s="1" t="s">
+      <c r="B218" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C218" s="3" t="s">
         <v>124</v>
       </c>
       <c r="D218">
-        <v>0.38638600000000001</v>
+        <v>0.42676700000000001</v>
       </c>
       <c r="E218">
         <v>0</v>
       </c>
-      <c r="F218" s="1" t="s">
-        <v>225</v>
+      <c r="F218" s="3" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="1" t="s">
+      <c r="A219" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B219" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C219" s="1" t="s">
+      <c r="B219" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C219" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D219">
-        <v>0.41999199999999998</v>
+        <v>0.46421899999999999</v>
       </c>
       <c r="E219">
         <v>0</v>
       </c>
-      <c r="F219" s="1" t="s">
-        <v>226</v>
+      <c r="F219" s="3" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="1" t="s">
+      <c r="A220" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B220" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C220" s="1" t="s">
+      <c r="B220" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C220" s="3" t="s">
         <v>124</v>
       </c>
       <c r="D220">
-        <v>0.40358699999999997</v>
+        <v>0.45378600000000002</v>
       </c>
       <c r="E220">
         <v>0</v>
       </c>
-      <c r="F220" s="1" t="s">
-        <v>226</v>
+      <c r="F220" s="3" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="1" t="s">
+      <c r="A221" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B221" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C221" s="1" t="s">
+      <c r="B221" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C221" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D221">
-        <v>8.6402839999999994</v>
+        <v>9.3712149999999994</v>
       </c>
       <c r="E221">
         <v>0</v>
       </c>
-      <c r="F221" s="1" t="s">
-        <v>227</v>
+      <c r="F221" s="3" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="222">
-      <c r="A222" s="1" t="s">
+      <c r="A222" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B222" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C222" s="1" t="s">
+      <c r="B222" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C222" s="3" t="s">
         <v>124</v>
       </c>
       <c r="D222">
-        <v>7.7869760000000001</v>
+        <v>8.4570930000000004</v>
       </c>
       <c r="E222">
         <v>0</v>
       </c>
-      <c r="F222" s="1" t="s">
-        <v>227</v>
+      <c r="F222" s="3" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="223">
-      <c r="A223" s="1" t="s">
+      <c r="A223" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B223" s="1" t="s">
+      <c r="B223" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C223" s="1" t="s">
+      <c r="C223" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D223">
-        <v>1.404533</v>
+        <v>1.5138879999999999</v>
       </c>
       <c r="E223">
         <v>0</v>
       </c>
-      <c r="F223" s="1" t="s">
+      <c r="F223" s="3" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="1" t="s">
+      <c r="A224" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B224" s="1" t="s">
+      <c r="B224" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C224" s="1" t="s">
+      <c r="C224" s="3" t="s">
         <v>124</v>
       </c>
       <c r="D224">
-        <v>0.54073400000000005</v>
+        <v>0.58401499999999995</v>
       </c>
       <c r="E224">
         <v>0</v>
       </c>
-      <c r="F224" s="1" t="s">
+      <c r="F224" s="3" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="1" t="s">
+      <c r="A225" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B225" s="1" t="s">
+      <c r="B225" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C225" s="1" t="s">
+      <c r="C225" s="3" t="s">
         <v>125</v>
       </c>
       <c r="D225">
-        <v>0.53056700000000001</v>
+        <v>0.57659199999999999</v>
       </c>
       <c r="E225">
         <v>0</v>
       </c>
-      <c r="F225" s="1" t="s">
+      <c r="F225" s="3" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="226">
-      <c r="A226" s="1" t="s">
+      <c r="A226" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B226" s="1" t="s">
+      <c r="B226" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C226" s="1" t="s">
+      <c r="C226" s="3" t="s">
         <v>126</v>
       </c>
       <c r="D226">
-        <v>3.9464220000000001</v>
+        <v>4.3609369999999998</v>
       </c>
       <c r="E226">
         <v>0</v>
       </c>
-      <c r="F226" s="1" t="s">
+      <c r="F226" s="3" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="227">
-      <c r="A227" s="1" t="s">
+      <c r="A227" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B227" s="1" t="s">
+      <c r="B227" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C227" s="1" t="s">
+      <c r="C227" s="3" t="s">
         <v>127</v>
       </c>
       <c r="D227">
-        <v>7.0127870000000003</v>
+        <v>8.6460550000000005</v>
       </c>
       <c r="E227">
         <v>0</v>
       </c>
-      <c r="F227" s="1" t="s">
+      <c r="F227" s="3" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="228">
-      <c r="A228" s="1" t="s">
+      <c r="A228" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B228" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C228" s="1" t="s">
+      <c r="B228" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C228" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D228">
-        <v>0.28652899999999998</v>
+        <v>0.30179</v>
       </c>
       <c r="E228">
         <v>0</v>
       </c>
-      <c r="F228" s="1" t="s">
-        <v>229</v>
+      <c r="F228" s="3" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="229">
-      <c r="A229" s="1" t="s">
+      <c r="A229" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B229" s="1" t="s">
+      <c r="B229" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C229" s="1" t="s">
+      <c r="C229" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D229">
-        <v>0.28168700000000002</v>
+        <v>0.29589500000000002</v>
       </c>
       <c r="E229">
         <v>0</v>
       </c>
-      <c r="F229" s="1" t="s">
+      <c r="F229" s="3" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="230">
-      <c r="A230" s="1" t="s">
+      <c r="A230" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B230" s="1" t="s">
+      <c r="B230" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C230" s="1" t="s">
+      <c r="C230" s="3" t="s">
         <v>124</v>
       </c>
       <c r="D230">
-        <v>0.269789</v>
+        <v>0.292626</v>
       </c>
       <c r="E230">
         <v>0</v>
       </c>
-      <c r="F230" s="1" t="s">
+      <c r="F230" s="3" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="231">
-      <c r="A231" s="1" t="s">
+      <c r="A231" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B231" s="1" t="s">
+      <c r="B231" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C231" s="1" t="s">
+      <c r="C231" s="3" t="s">
         <v>125</v>
       </c>
       <c r="D231">
-        <v>1.445543</v>
+        <v>1.693519</v>
       </c>
       <c r="E231">
         <v>0</v>
       </c>
-      <c r="F231" s="1" t="s">
+      <c r="F231" s="3" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="232">
-      <c r="A232" s="1" t="s">
+      <c r="A232" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B232" s="1" t="s">
+      <c r="B232" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C232" s="1" t="s">
+      <c r="C232" s="3" t="s">
         <v>126</v>
       </c>
       <c r="D232">
-        <v>1.4607699999999999</v>
+        <v>1.757695</v>
       </c>
       <c r="E232">
         <v>0</v>
       </c>
-      <c r="F232" s="1" t="s">
+      <c r="F232" s="3" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="233">
-      <c r="A233" s="1" t="s">
+      <c r="A233" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B233" s="1" t="s">
+      <c r="B233" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C233" s="1" t="s">
+      <c r="C233" s="3" t="s">
         <v>127</v>
       </c>
       <c r="D233">
-        <v>2.0968140000000002</v>
+        <v>2.4098549999999999</v>
       </c>
       <c r="E233">
         <v>0</v>
       </c>
-      <c r="F233" s="1" t="s">
+      <c r="F233" s="3" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="234">
-      <c r="A234" s="1" t="s">
+      <c r="A234" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B234" s="1" t="s">
+      <c r="B234" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C234" s="1" t="s">
+      <c r="C234" s="3" t="s">
         <v>128</v>
       </c>
       <c r="D234">
-        <v>1.4975400000000001</v>
+        <v>1.690488</v>
       </c>
       <c r="E234">
         <v>0</v>
       </c>
-      <c r="F234" s="1" t="s">
+      <c r="F234" s="3" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="235">
-      <c r="A235" s="1" t="s">
+      <c r="A235" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B235" s="1" t="s">
+      <c r="B235" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C235" s="1" t="s">
+      <c r="C235" s="3" t="s">
         <v>129</v>
       </c>
       <c r="D235">
-        <v>4.0447249999999997</v>
+        <v>4.3661099999999999</v>
       </c>
       <c r="E235">
         <v>0</v>
       </c>
-      <c r="F235" s="1" t="s">
+      <c r="F235" s="3" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="236">
-      <c r="A236" s="1" t="s">
+      <c r="A236" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B236" s="1" t="s">
+      <c r="B236" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C236" s="1" t="s">
+      <c r="C236" s="3" t="s">
         <v>130</v>
       </c>
       <c r="D236">
-        <v>2.4339719999999998</v>
+        <v>2.6500219999999999</v>
       </c>
       <c r="E236">
         <v>0</v>
       </c>
-      <c r="F236" s="1" t="s">
+      <c r="F236" s="3" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="237">
-      <c r="A237" s="1" t="s">
+      <c r="A237" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B237" s="1" t="s">
+      <c r="B237" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C237" s="1" t="s">
+      <c r="C237" s="3" t="s">
         <v>131</v>
       </c>
       <c r="D237">
-        <v>13.120485</v>
+        <v>14.640700000000001</v>
       </c>
       <c r="E237">
         <v>0</v>
       </c>
-      <c r="F237" s="1" t="s">
+      <c r="F237" s="3" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="238">
-      <c r="A238" s="1" t="s">
+      <c r="A238" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B238" s="1" t="s">
+      <c r="B238" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C238" s="1" t="s">
+      <c r="C238" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D238">
-        <v>3.8040560000000001</v>
+        <v>4.0682619999999998</v>
       </c>
       <c r="E238">
         <v>0</v>
       </c>
-      <c r="F238" s="1" t="s">
-        <v>231</v>
+      <c r="F238" s="3" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="239">
-      <c r="A239" s="1" t="s">
+      <c r="A239" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B239" s="1" t="s">
+      <c r="B239" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C239" s="1" t="s">
+      <c r="C239" s="3" t="s">
         <v>124</v>
       </c>
       <c r="D239">
-        <v>0.79251899999999997</v>
+        <v>0.86289700000000003</v>
       </c>
       <c r="E239">
         <v>0</v>
       </c>
-      <c r="F239" s="1" t="s">
-        <v>231</v>
+      <c r="F239" s="3" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="240">
-      <c r="A240" s="1" t="s">
+      <c r="A240" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B240" s="1" t="s">
+      <c r="B240" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C240" s="1" t="s">
+      <c r="C240" s="3" t="s">
         <v>125</v>
       </c>
       <c r="D240">
-        <v>1.166307</v>
+        <v>1.2255830000000001</v>
       </c>
       <c r="E240">
         <v>0</v>
       </c>
-      <c r="F240" s="1" t="s">
-        <v>231</v>
+      <c r="F240" s="3" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="241">
-      <c r="A241" s="1" t="s">
+      <c r="A241" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B241" s="1" t="s">
+      <c r="B241" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C241" s="1" t="s">
+      <c r="C241" s="3" t="s">
         <v>126</v>
       </c>
       <c r="D241">
-        <v>3.5465710000000001</v>
+        <v>3.8437869999999998</v>
       </c>
       <c r="E241">
         <v>0</v>
       </c>
-      <c r="F241" s="1" t="s">
-        <v>231</v>
+      <c r="F241" s="3" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="242">
-      <c r="A242" s="1" t="s">
+      <c r="A242" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B242" s="1" t="s">
+      <c r="B242" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C242" s="1" t="s">
+      <c r="C242" s="3" t="s">
         <v>127</v>
       </c>
       <c r="D242">
-        <v>0.75270099999999995</v>
+        <v>0.79407700000000003</v>
       </c>
       <c r="E242">
         <v>0</v>
       </c>
-      <c r="F242" s="1" t="s">
-        <v>231</v>
+      <c r="F242" s="3" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="243">
-      <c r="A243" s="1" t="s">
+      <c r="A243" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B243" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C243" s="1" t="s">
+      <c r="B243" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C243" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D243">
-        <v>0.27658899999999997</v>
+        <v>0.28680299999999997</v>
       </c>
       <c r="E243">
         <v>0</v>
       </c>
-      <c r="F243" s="1" t="s">
-        <v>232</v>
+      <c r="F243" s="3" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="244">
-      <c r="A244" s="1" t="s">
+      <c r="A244" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B244" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C244" s="1" t="s">
+      <c r="B244" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C244" s="3" t="s">
         <v>124</v>
       </c>
       <c r="D244">
-        <v>0.26850800000000002</v>
+        <v>0.28623700000000002</v>
       </c>
       <c r="E244">
         <v>0</v>
       </c>
-      <c r="F244" s="1" t="s">
-        <v>232</v>
+      <c r="F244" s="3" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="245">
-      <c r="A245" s="1" t="s">
+      <c r="A245" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B245" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C245" s="1" t="s">
+      <c r="B245" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C245" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D245">
-        <v>0.26228099999999999</v>
+        <v>0.27986499999999997</v>
       </c>
       <c r="E245">
         <v>0</v>
       </c>
-      <c r="F245" s="1" t="s">
+      <c r="F245" s="3" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="246">
-      <c r="A246" s="1" t="s">
+      <c r="A246" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B246" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C246" s="1" t="s">
+      <c r="B246" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C246" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D246">
-        <v>0.26355699999999999</v>
+        <v>0.28034199999999998</v>
       </c>
       <c r="E246">
         <v>0</v>
       </c>
-      <c r="F246" s="1" t="s">
-        <v>234</v>
+      <c r="F246" s="3" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="247">
-      <c r="A247" s="1" t="s">
+      <c r="A247" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B247" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C247" s="1" t="s">
+      <c r="B247" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C247" s="3" t="s">
         <v>124</v>
       </c>
       <c r="D247">
-        <v>0.26286100000000001</v>
+        <v>0.284717</v>
       </c>
       <c r="E247">
         <v>0</v>
       </c>
-      <c r="F247" s="1" t="s">
-        <v>234</v>
+      <c r="F247" s="3" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="248">
-      <c r="A248" s="1" t="s">
+      <c r="A248" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B248" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C248" s="1" t="s">
+      <c r="B248" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C248" s="3" t="s">
         <v>125</v>
       </c>
       <c r="D248">
-        <v>0.25572299999999998</v>
+        <v>0.27540700000000001</v>
       </c>
       <c r="E248">
         <v>0</v>
       </c>
-      <c r="F248" s="1" t="s">
-        <v>234</v>
+      <c r="F248" s="3" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="249">
-      <c r="A249" s="1" t="s">
+      <c r="A249" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B249" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C249" s="1" t="s">
+      <c r="B249" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C249" s="3" t="s">
         <v>126</v>
       </c>
       <c r="D249">
-        <v>0.44948500000000002</v>
+        <v>0.46112300000000001</v>
       </c>
       <c r="E249">
         <v>0</v>
       </c>
-      <c r="F249" s="1" t="s">
-        <v>234</v>
+      <c r="F249" s="3" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="250">
-      <c r="A250" s="1" t="s">
+      <c r="A250" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B250" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C250" s="1" t="s">
+      <c r="B250" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C250" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D250">
-        <v>0.27938400000000002</v>
+        <v>0.29222900000000002</v>
       </c>
       <c r="E250">
         <v>0</v>
       </c>
-      <c r="F250" s="1" t="s">
-        <v>235</v>
+      <c r="F250" s="3" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="251">
-      <c r="A251" s="1" t="s">
+      <c r="A251" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B251" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C251" s="1" t="s">
+      <c r="B251" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C251" s="3" t="s">
         <v>124</v>
       </c>
       <c r="D251">
-        <v>0.69661799999999996</v>
+        <v>0.75232100000000002</v>
       </c>
       <c r="E251">
         <v>0</v>
       </c>
-      <c r="F251" s="1" t="s">
-        <v>235</v>
+      <c r="F251" s="3" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="252">
-      <c r="A252" s="1" t="s">
+      <c r="A252" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B252" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C252" s="1" t="s">
+      <c r="B252" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C252" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D252">
-        <v>0.410825</v>
+        <v>0.50595800000000002</v>
       </c>
       <c r="E252">
         <v>0</v>
       </c>
-      <c r="F252" s="1" t="s">
-        <v>236</v>
+      <c r="F252" s="3" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="253">
-      <c r="A253" s="1" t="s">
+      <c r="A253" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B253" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C253" s="1" t="s">
+      <c r="B253" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C253" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D253">
-        <v>0.34477000000000002</v>
+        <v>0.396953</v>
       </c>
       <c r="E253">
         <v>0</v>
       </c>
-      <c r="F253" s="1" t="s">
-        <v>237</v>
+      <c r="F253" s="3" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="254">
-      <c r="A254" s="1" t="s">
+      <c r="A254" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B254" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C254" s="1" t="s">
+      <c r="B254" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C254" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D254">
-        <v>0.34989199999999998</v>
+        <v>0.37750299999999998</v>
       </c>
       <c r="E254">
         <v>0</v>
       </c>
-      <c r="F254" s="1" t="s">
-        <v>238</v>
+      <c r="F254" s="3" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="255">
-      <c r="A255" s="1" t="s">
+      <c r="A255" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B255" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C255" s="1" t="s">
+      <c r="B255" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C255" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D255">
-        <v>0.50722</v>
+        <v>0.57063600000000003</v>
       </c>
       <c r="E255">
         <v>0</v>
       </c>
-      <c r="F255" s="1" t="s">
-        <v>239</v>
+      <c r="F255" s="3" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="256">
-      <c r="A256" s="1" t="s">
+      <c r="A256" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B256" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C256" s="1" t="s">
+      <c r="B256" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C256" s="3" t="s">
         <v>124</v>
       </c>
       <c r="D256">
-        <v>0.409076</v>
+        <v>0.439081</v>
       </c>
       <c r="E256">
         <v>0</v>
       </c>
-      <c r="F256" s="1" t="s">
-        <v>239</v>
+      <c r="F256" s="3" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="257">
-      <c r="A257" s="1" t="s">
+      <c r="A257" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B257" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C257" s="1" t="s">
+      <c r="B257" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C257" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D257">
-        <v>0.35332000000000002</v>
+        <v>0.37458900000000001</v>
       </c>
       <c r="E257">
         <v>0</v>
       </c>
-      <c r="F257" s="1" t="s">
-        <v>240</v>
+      <c r="F257" s="3" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="258">
-      <c r="A258" s="1" t="s">
+      <c r="A258" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B258" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C258" s="1" t="s">
+      <c r="B258" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C258" s="3" t="s">
         <v>124</v>
       </c>
       <c r="D258">
-        <v>1.488329</v>
+        <v>1.668223</v>
       </c>
       <c r="E258">
         <v>0</v>
       </c>
-      <c r="F258" s="1" t="s">
-        <v>240</v>
+      <c r="F258" s="3" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="259">
-      <c r="A259" s="1" t="s">
+      <c r="A259" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B259" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C259" s="1" t="s">
+      <c r="B259" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C259" s="3" t="s">
         <v>125</v>
       </c>
       <c r="D259">
-        <v>0.35514000000000001</v>
+        <v>0.377494</v>
       </c>
       <c r="E259">
         <v>0</v>
       </c>
-      <c r="F259" s="1" t="s">
-        <v>240</v>
+      <c r="F259" s="3" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="260">
-      <c r="A260" s="1" t="s">
+      <c r="A260" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B260" s="1" t="s">
+      <c r="B260" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C260" s="1" t="s">
+      <c r="C260" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D260">
-        <v>0.27485500000000002</v>
+        <v>0.29339999999999999</v>
       </c>
       <c r="E260">
         <v>0</v>
       </c>
-      <c r="F260" s="1" t="s">
-        <v>241</v>
+      <c r="F260" s="3" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="261">
-      <c r="A261" s="1" t="s">
+      <c r="A261" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B261" s="1" t="s">
+      <c r="B261" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C261" s="1" t="s">
+      <c r="C261" s="3" t="s">
         <v>124</v>
       </c>
       <c r="D261">
-        <v>0.26006400000000002</v>
+        <v>0.28232000000000002</v>
       </c>
       <c r="E261">
         <v>0</v>
       </c>
-      <c r="F261" s="1" t="s">
-        <v>241</v>
+      <c r="F261" s="3" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="262">
-      <c r="A262" s="1" t="s">
+      <c r="A262" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B262" s="1" t="s">
+      <c r="B262" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C262" s="1" t="s">
+      <c r="C262" s="3" t="s">
         <v>125</v>
       </c>
       <c r="D262">
-        <v>0.26704699999999998</v>
+        <v>0.28448200000000001</v>
       </c>
       <c r="E262">
         <v>0</v>
       </c>
-      <c r="F262" s="1" t="s">
-        <v>241</v>
+      <c r="F262" s="3" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="263">
-      <c r="A263" s="1" t="s">
+      <c r="A263" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B263" s="1" t="s">
+      <c r="B263" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C263" s="1" t="s">
+      <c r="C263" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D263">
-        <v>0.492066</v>
+        <v>0.54419099999999998</v>
       </c>
       <c r="E263">
         <v>0</v>
       </c>
-      <c r="F263" s="1" t="s">
-        <v>242</v>
+      <c r="F263" s="3" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="264">
-      <c r="A264" s="1" t="s">
+      <c r="A264" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B264" s="1" t="s">
+      <c r="B264" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C264" s="1" t="s">
+      <c r="C264" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D264">
-        <v>0.28615400000000002</v>
+        <v>0.30021999999999999</v>
       </c>
       <c r="E264">
         <v>0</v>
       </c>
-      <c r="F264" s="1" t="s">
-        <v>243</v>
+      <c r="F264" s="3" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="265">
-      <c r="A265" s="1" t="s">
+      <c r="A265" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B265" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C265" s="1" t="s">
+      <c r="B265" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C265" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D265">
-        <v>1.2544</v>
+        <v>1.4456640000000001</v>
       </c>
       <c r="E265">
         <v>0</v>
       </c>
-      <c r="F265" s="1" t="s">
-        <v>244</v>
+      <c r="F265" s="3" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="266">
-      <c r="A266" s="1" t="s">
+      <c r="A266" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B266" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C266" s="1" t="s">
+      <c r="B266" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C266" s="3" t="s">
         <v>124</v>
       </c>
       <c r="D266">
-        <v>1.901527</v>
+        <v>2.05321</v>
       </c>
       <c r="E266">
         <v>0</v>
       </c>
-      <c r="F266" s="1" t="s">
-        <v>244</v>
+      <c r="F266" s="3" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="267">
-      <c r="A267" s="1" t="s">
+      <c r="A267" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B267" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C267" s="1" t="s">
+      <c r="B267" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C267" s="3" t="s">
         <v>125</v>
       </c>
       <c r="D267">
-        <v>4.2142210000000002</v>
+        <v>4.8407869999999997</v>
       </c>
       <c r="E267">
         <v>0</v>
       </c>
-      <c r="F267" s="1" t="s">
-        <v>244</v>
+      <c r="F267" s="3" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="268">
-      <c r="A268" s="1" t="s">
+      <c r="A268" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B268" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C268" s="1" t="s">
+      <c r="B268" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C268" s="3" t="s">
         <v>126</v>
       </c>
       <c r="D268">
-        <v>3.2622040000000001</v>
+        <v>3.5130219999999999</v>
       </c>
       <c r="E268">
         <v>0</v>
       </c>
-      <c r="F268" s="1" t="s">
-        <v>244</v>
+      <c r="F268" s="3" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="269">
-      <c r="A269" s="1" t="s">
+      <c r="A269" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B269" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C269" s="1" t="s">
+      <c r="B269" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C269" s="3" t="s">
         <v>127</v>
       </c>
       <c r="D269">
-        <v>3.270613</v>
+        <v>3.4983050000000002</v>
       </c>
       <c r="E269">
         <v>0</v>
       </c>
-      <c r="F269" s="1" t="s">
-        <v>244</v>
+      <c r="F269" s="3" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="270">
-      <c r="A270" s="1" t="s">
+      <c r="A270" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B270" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C270" s="1" t="s">
+      <c r="B270" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C270" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D270">
-        <v>1.8893899999999999</v>
+        <v>2.0500029999999998</v>
       </c>
       <c r="E270">
         <v>0</v>
       </c>
-      <c r="F270" s="1" t="s">
-        <v>245</v>
+      <c r="F270" s="3" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="271">
-      <c r="A271" s="1" t="s">
+      <c r="A271" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B271" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C271" s="1" t="s">
+      <c r="B271" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C271" s="3" t="s">
         <v>124</v>
       </c>
       <c r="D271">
-        <v>1.791998</v>
+        <v>1.9550110000000001</v>
       </c>
       <c r="E271">
         <v>0</v>
       </c>
-      <c r="F271" s="1" t="s">
-        <v>245</v>
+      <c r="F271" s="3" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="272">
-      <c r="A272" s="1" t="s">
+      <c r="A272" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B272" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C272" s="1" t="s">
+      <c r="B272" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C272" s="3" t="s">
         <v>125</v>
       </c>
       <c r="D272">
-        <v>1.8041419999999999</v>
+        <v>1.946339</v>
       </c>
       <c r="E272">
         <v>0</v>
       </c>
-      <c r="F272" s="1" t="s">
-        <v>245</v>
+      <c r="F272" s="3" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="273">
-      <c r="A273" s="1" t="s">
+      <c r="A273" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B273" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C273" s="1" t="s">
+      <c r="B273" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C273" s="3" t="s">
         <v>126</v>
       </c>
       <c r="D273">
-        <v>7.6146710000000004</v>
+        <v>8.4068070000000006</v>
       </c>
       <c r="E273">
         <v>0</v>
       </c>
-      <c r="F273" s="1" t="s">
-        <v>245</v>
+      <c r="F273" s="3" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="274">
-      <c r="A274" s="1" t="s">
+      <c r="A274" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B274" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C274" s="1" t="s">
+      <c r="B274" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C274" s="3" t="s">
         <v>127</v>
       </c>
       <c r="D274">
-        <v>7.616987</v>
+        <v>8.4381059999999994</v>
       </c>
       <c r="E274">
         <v>0</v>
       </c>
-      <c r="F274" s="1" t="s">
-        <v>245</v>
+      <c r="F274" s="3" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="275">
-      <c r="A275" s="1" t="s">
+      <c r="A275" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B275" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C275" s="1" t="s">
+      <c r="B275" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C275" s="3" t="s">
         <v>128</v>
       </c>
       <c r="D275">
-        <v>1.829439</v>
+        <v>1.9966219999999999</v>
       </c>
       <c r="E275">
         <v>0</v>
       </c>
-      <c r="F275" s="1" t="s">
-        <v>245</v>
+      <c r="F275" s="3" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="276">
-      <c r="A276" s="1" t="s">
+      <c r="A276" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B276" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C276" s="1" t="s">
+      <c r="B276" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C276" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D276">
-        <v>1.8221609999999999</v>
+        <v>1.9620249999999999</v>
       </c>
       <c r="E276">
         <v>0</v>
       </c>
-      <c r="F276" s="1" t="s">
-        <v>246</v>
+      <c r="F276" s="3" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="277">
-      <c r="A277" s="1" t="s">
+      <c r="A277" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B277" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C277" s="1" t="s">
+      <c r="B277" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C277" s="3" t="s">
         <v>124</v>
       </c>
       <c r="D277">
-        <v>1.8652010000000001</v>
+        <v>1.980693</v>
       </c>
       <c r="E277">
         <v>0</v>
       </c>
-      <c r="F277" s="1" t="s">
-        <v>246</v>
+      <c r="F277" s="3" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="278">
-      <c r="A278" s="1" t="s">
+      <c r="A278" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B278" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C278" s="1" t="s">
+      <c r="B278" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C278" s="3" t="s">
         <v>125</v>
       </c>
       <c r="D278">
-        <v>1.838614</v>
+        <v>1.98905</v>
       </c>
       <c r="E278">
         <v>0</v>
       </c>
-      <c r="F278" s="1" t="s">
-        <v>246</v>
+      <c r="F278" s="3" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="279">
-      <c r="A279" s="1" t="s">
+      <c r="A279" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B279" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C279" s="1" t="s">
+      <c r="B279" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C279" s="3" t="s">
         <v>126</v>
       </c>
       <c r="D279">
-        <v>3.9918659999999999</v>
+        <v>4.2461599999999997</v>
       </c>
       <c r="E279">
         <v>0</v>
       </c>
-      <c r="F279" s="1" t="s">
-        <v>246</v>
+      <c r="F279" s="3" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="280">
-      <c r="A280" s="1" t="s">
+      <c r="A280" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B280" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C280" s="1" t="s">
+      <c r="B280" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C280" s="3" t="s">
         <v>127</v>
       </c>
       <c r="D280">
-        <v>7.2648039999999998</v>
+        <v>7.8325149999999999</v>
       </c>
       <c r="E280">
         <v>0</v>
       </c>
-      <c r="F280" s="1" t="s">
-        <v>246</v>
+      <c r="F280" s="3" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="281">
-      <c r="A281" s="1" t="s">
+      <c r="A281" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B281" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C281" s="1" t="s">
+      <c r="B281" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C281" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D281">
-        <v>2.3840729999999999</v>
+        <v>2.60128</v>
       </c>
       <c r="E281">
         <v>0</v>
       </c>
-      <c r="F281" s="1" t="s">
-        <v>247</v>
+      <c r="F281" s="3" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="282">
-      <c r="A282" s="1" t="s">
+      <c r="A282" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B282" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C282" s="1" t="s">
+      <c r="B282" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C282" s="3" t="s">
         <v>124</v>
       </c>
       <c r="D282">
-        <v>0.57609399999999999</v>
+        <v>0.62703399999999998</v>
       </c>
       <c r="E282">
         <v>0</v>
       </c>
-      <c r="F282" s="1" t="s">
-        <v>247</v>
+      <c r="F282" s="3" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="283">
-      <c r="A283" s="1" t="s">
+      <c r="A283" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B283" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C283" s="1" t="s">
+      <c r="B283" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C283" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D283">
-        <v>0.46009499999999998</v>
+        <v>0.49412099999999998</v>
       </c>
       <c r="E283">
         <v>0</v>
       </c>
-      <c r="F283" s="1" t="s">
-        <v>248</v>
+      <c r="F283" s="3" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="284">
-      <c r="A284" s="1" t="s">
+      <c r="A284" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B284" s="1" t="s">
+      <c r="B284" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C284" s="1" t="s">
+      <c r="C284" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D284">
-        <v>0.402619</v>
+        <v>0.430228</v>
       </c>
       <c r="E284">
         <v>0</v>
       </c>
-      <c r="F284" s="1" t="s">
-        <v>249</v>
+      <c r="F284" s="3" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="285">
-      <c r="A285" s="1" t="s">
+      <c r="A285" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B285" s="1" t="s">
+      <c r="B285" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C285" s="1" t="s">
+      <c r="C285" s="3" t="s">
         <v>124</v>
       </c>
       <c r="D285">
-        <v>0.49352400000000002</v>
+        <v>0.52883199999999997</v>
       </c>
       <c r="E285">
         <v>0</v>
       </c>
-      <c r="F285" s="1" t="s">
-        <v>249</v>
+      <c r="F285" s="3" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="286">
-      <c r="A286" s="1" t="s">
+      <c r="A286" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B286" s="1" t="s">
+      <c r="B286" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C286" s="1" t="s">
+      <c r="C286" s="3" t="s">
         <v>125</v>
       </c>
       <c r="D286">
-        <v>0.28239399999999998</v>
+        <v>0.29830899999999999</v>
       </c>
       <c r="E286">
         <v>0</v>
       </c>
-      <c r="F286" s="1" t="s">
-        <v>249</v>
+      <c r="F286" s="3" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="287">
-      <c r="A287" s="1" t="s">
+      <c r="A287" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B287" s="1" t="s">
+      <c r="B287" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C287" s="1" t="s">
+      <c r="C287" s="3" t="s">
         <v>126</v>
       </c>
       <c r="D287">
-        <v>0.26832800000000001</v>
+        <v>0.28675</v>
       </c>
       <c r="E287">
         <v>0</v>
       </c>
-      <c r="F287" s="1" t="s">
-        <v>249</v>
+      <c r="F287" s="3" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="288">
-      <c r="A288" s="1" t="s">
+      <c r="A288" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B288" s="1" t="s">
+      <c r="B288" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C288" s="1" t="s">
+      <c r="C288" s="3" t="s">
         <v>127</v>
       </c>
       <c r="D288">
-        <v>0.27234700000000001</v>
+        <v>0.292043</v>
       </c>
       <c r="E288">
         <v>0</v>
       </c>
-      <c r="F288" s="1" t="s">
-        <v>249</v>
+      <c r="F288" s="3" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="289">
-      <c r="A289" s="1" t="s">
+      <c r="A289" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B289" s="1" t="s">
+      <c r="B289" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C289" s="1" t="s">
+      <c r="C289" s="3" t="s">
         <v>128</v>
       </c>
       <c r="D289">
-        <v>0.27494000000000002</v>
+        <v>0.29294500000000001</v>
       </c>
       <c r="E289">
         <v>0</v>
       </c>
-      <c r="F289" s="1" t="s">
-        <v>249</v>
+      <c r="F289" s="3" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="290">
-      <c r="A290" s="1" t="s">
+      <c r="A290" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B290" s="1" t="s">
+      <c r="B290" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C290" s="1" t="s">
+      <c r="C290" s="3" t="s">
         <v>129</v>
       </c>
       <c r="D290">
-        <v>1.6316170000000001</v>
+        <v>1.6183689999999999</v>
       </c>
       <c r="E290">
         <v>0</v>
       </c>
-      <c r="F290" s="1" t="s">
-        <v>249</v>
+      <c r="F290" s="3" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="291">
-      <c r="A291" s="1" t="s">
+      <c r="A291" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B291" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C291" s="1" t="s">
+      <c r="B291" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C291" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D291">
-        <v>1.8984209999999999</v>
+        <v>2.0210940000000002</v>
       </c>
       <c r="E291">
         <v>0</v>
       </c>
-      <c r="F291" s="1" t="s">
-        <v>250</v>
+      <c r="F291" s="3" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="292">
-      <c r="A292" s="1" t="s">
+      <c r="A292" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B292" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C292" s="1" t="s">
+      <c r="B292" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C292" s="3" t="s">
         <v>124</v>
       </c>
       <c r="D292">
-        <v>2.035228</v>
+        <v>2.139418</v>
       </c>
       <c r="E292">
         <v>0</v>
       </c>
-      <c r="F292" s="1" t="s">
-        <v>250</v>
+      <c r="F292" s="3" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="293">
-      <c r="A293" s="1" t="s">
+      <c r="A293" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B293" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C293" s="1" t="s">
+      <c r="B293" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C293" s="3" t="s">
         <v>125</v>
       </c>
       <c r="D293">
-        <v>1.0295989999999999</v>
+        <v>1.0581469999999999</v>
       </c>
       <c r="E293">
         <v>0</v>
       </c>
-      <c r="F293" s="1" t="s">
-        <v>250</v>
+      <c r="F293" s="3" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="294">
-      <c r="A294" s="1" t="s">
+      <c r="A294" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B294" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C294" s="1" t="s">
+      <c r="B294" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C294" s="3" t="s">
         <v>126</v>
       </c>
       <c r="D294">
-        <v>0.51142699999999996</v>
+        <v>0.55170300000000005</v>
       </c>
       <c r="E294">
         <v>0</v>
       </c>
-      <c r="F294" s="1" t="s">
-        <v>250</v>
+      <c r="F294" s="3" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="295">
-      <c r="A295" s="1" t="s">
+      <c r="A295" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B295" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C295" s="1" t="s">
+      <c r="B295" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C295" s="3" t="s">
         <v>127</v>
       </c>
       <c r="D295">
-        <v>0.68232800000000005</v>
+        <v>0.74417699999999998</v>
       </c>
       <c r="E295">
         <v>0</v>
       </c>
-      <c r="F295" s="1" t="s">
-        <v>250</v>
+      <c r="F295" s="3" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="296">
-      <c r="A296" s="1" t="s">
+      <c r="A296" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B296" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C296" s="1" t="s">
+      <c r="B296" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C296" s="3" t="s">
         <v>128</v>
       </c>
       <c r="D296">
-        <v>0.88344900000000004</v>
+        <v>0.96674800000000005</v>
       </c>
       <c r="E296">
         <v>0</v>
       </c>
-      <c r="F296" s="1" t="s">
-        <v>250</v>
+      <c r="F296" s="3" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="297">
-      <c r="A297" s="1" t="s">
+      <c r="A297" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B297" s="1" t="s">
+      <c r="B297" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C297" s="1" t="s">
+      <c r="C297" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D297">
-        <v>1.043005</v>
+        <v>1.2511749999999999</v>
       </c>
       <c r="E297">
         <v>0</v>
       </c>
-      <c r="F297" s="1" t="s">
-        <v>251</v>
+      <c r="F297" s="3" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="298">
-      <c r="A298" s="1" t="s">
+      <c r="A298" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B298" s="1" t="s">
+      <c r="B298" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C298" s="1" t="s">
+      <c r="C298" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D298">
-        <v>0.26722899999999999</v>
+        <v>0.28818899999999997</v>
       </c>
       <c r="E298">
         <v>0</v>
       </c>
-      <c r="F298" s="1" t="s">
-        <v>252</v>
+      <c r="F298" s="3" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="299">
-      <c r="A299" s="1" t="s">
+      <c r="A299" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B299" s="1" t="s">
+      <c r="B299" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C299" s="1" t="s">
+      <c r="C299" s="3" t="s">
         <v>124</v>
       </c>
       <c r="D299">
-        <v>0.278142</v>
+        <v>0.29364000000000001</v>
       </c>
       <c r="E299">
         <v>0</v>
       </c>
-      <c r="F299" s="1" t="s">
-        <v>252</v>
+      <c r="F299" s="3" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="300">
-      <c r="A300" s="1" t="s">
+      <c r="A300" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B300" s="1" t="s">
+      <c r="B300" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C300" s="1" t="s">
+      <c r="C300" s="3" t="s">
         <v>125</v>
       </c>
       <c r="D300">
-        <v>0.27787099999999998</v>
+        <v>0.322293</v>
       </c>
       <c r="E300">
         <v>0</v>
       </c>
-      <c r="F300" s="1" t="s">
-        <v>252</v>
+      <c r="F300" s="3" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="301">
-      <c r="A301" s="1" t="s">
+      <c r="A301" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B301" s="1" t="s">
+      <c r="B301" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C301" s="1" t="s">
+      <c r="C301" s="3" t="s">
         <v>126</v>
       </c>
       <c r="D301">
-        <v>0.28980899999999998</v>
+        <v>0.31234899999999999</v>
       </c>
       <c r="E301">
         <v>0</v>
       </c>
-      <c r="F301" s="1" t="s">
-        <v>252</v>
+      <c r="F301" s="3" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="302">
-      <c r="A302" s="1" t="s">
+      <c r="A302" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B302" s="1" t="s">
+      <c r="B302" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C302" s="1" t="s">
+      <c r="C302" s="3" t="s">
         <v>127</v>
       </c>
       <c r="D302">
-        <v>0.30660300000000001</v>
+        <v>0.35922900000000002</v>
       </c>
       <c r="E302">
         <v>0</v>
       </c>
-      <c r="F302" s="1" t="s">
-        <v>252</v>
+      <c r="F302" s="3" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="303">
-      <c r="A303" s="1" t="s">
+      <c r="A303" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B303" s="1" t="s">
+      <c r="B303" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C303" s="1" t="s">
+      <c r="C303" s="3" t="s">
         <v>128</v>
       </c>
       <c r="D303">
-        <v>0.37496600000000002</v>
+        <v>0.42258800000000002</v>
       </c>
       <c r="E303">
         <v>0</v>
       </c>
-      <c r="F303" s="1" t="s">
-        <v>252</v>
+      <c r="F303" s="3" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="304">
-      <c r="A304" s="1" t="s">
+      <c r="A304" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B304" s="1" t="s">
+      <c r="B304" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C304" s="1" t="s">
+      <c r="C304" s="3" t="s">
         <v>129</v>
       </c>
       <c r="D304">
-        <v>0.27972200000000003</v>
+        <v>0.29947000000000001</v>
       </c>
       <c r="E304">
         <v>0</v>
       </c>
-      <c r="F304" s="1" t="s">
-        <v>252</v>
+      <c r="F304" s="3" t="s">
+        <v>352</v>
       </c>
     </row>
   </sheetData>
